--- a/mo-200/DSA MO 200 2. Manage data cells and ranges.xlsx
+++ b/mo-200/DSA MO 200 2. Manage data cells and ranges.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Analytics\MS Excel\MO 200\DataSense MO200\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jelisha\Documents\GitHub\excel-projects\mo-200\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5069E5FD-EBC8-4347-9D7A-F81225733EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0E18B8-308F-42BE-BA2F-421F3EFA0219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MO 200 Section 2 - Index" sheetId="2" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <definedName name="_xlcn.WorksheetConnection_T9A2C161" hidden="1">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'MO 200 Section 2 - Index'!$A$1:$D$25</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'MO 200 Section 2 - Index'!$1:$3</definedName>
+    <definedName name="test">'Define &amp; reference named range'!$H$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,17 +41,41 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={6AF9F8D3-AE0B-493A-A7A4-FCCF6BCC55D8}</author>
+  </authors>
+  <commentList>
+    <comment ref="A54" authorId="0" shapeId="0" xr:uid="{6AF9F8D3-AE0B-493A-A7A4-FCCF6BCC55D8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Copy the multiplier
+Highlight the values to be multiplied
+Paste special
+Operation (Multiply)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="340">
   <si>
     <t>SN</t>
   </si>
@@ -962,18 +987,160 @@
   <si>
     <t>Number of Passenger 2022</t>
   </si>
+  <si>
+    <t>Lou</t>
+  </si>
+  <si>
+    <t>Arjo</t>
+  </si>
+  <si>
+    <t>Paolo</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Cesar</t>
+  </si>
+  <si>
+    <t>Gilberto</t>
+  </si>
+  <si>
+    <t>Cris</t>
+  </si>
+  <si>
+    <t>Andoy</t>
+  </si>
+  <si>
+    <t>Arnel</t>
+  </si>
+  <si>
+    <t>Chua</t>
+  </si>
+  <si>
+    <t>Ocampo</t>
+  </si>
+  <si>
+    <t>Bernal</t>
+  </si>
+  <si>
+    <t>Roque</t>
+  </si>
+  <si>
+    <t>Rosario</t>
+  </si>
+  <si>
+    <t>Campos</t>
+  </si>
+  <si>
+    <t>Manzano</t>
+  </si>
+  <si>
+    <t>Ortiz</t>
+  </si>
+  <si>
+    <t>Bernardo</t>
+  </si>
+  <si>
+    <t>Torre</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>Sparklines</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="&quot;₱&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1199,6 +1366,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="25">
     <fill>
@@ -1341,7 +1522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1519,26 +1700,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </right>
@@ -1652,9 +1813,9 @@
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1665,7 +1826,7 @@
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1823,14 +1984,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1840,17 +1998,17 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="2" fillId="12" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="12" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="12" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="12" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="6"/>
@@ -1883,18 +2041,10 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1911,26 +2061,26 @@
     <xf numFmtId="0" fontId="16" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1947,8 +2097,8 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1958,8 +2108,16 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="40% - Accent1" xfId="10" builtinId="31"/>
@@ -1977,7 +2135,92 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2239,56 +2482,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -2308,8 +2501,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="CustomTableStyle" pivot="0" count="2" xr9:uid="{9877B71A-C7FA-420A-8AB0-3069C7F6A9F9}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="firstRowStripe" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="20"/>
+      <tableStyleElement type="firstRowStripe" dxfId="19"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2356,8 +2549,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="177404" y="6003051"/>
-          <a:ext cx="4639739" cy="735134"/>
+          <a:off x="177404" y="5982096"/>
+          <a:ext cx="4664504" cy="704654"/>
           <a:chOff x="177404" y="6460251"/>
           <a:chExt cx="4639739" cy="735134"/>
         </a:xfrm>
@@ -2553,7 +2746,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>225641</xdr:colOff>
+      <xdr:colOff>225642</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>74151</xdr:rowOff>
     </xdr:to>
@@ -2591,18 +2784,38 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Jelisha Ruth B. Bugnon" id="{15C85AC4-A45A-4C8B-82EE-8E61D23E8DDE}" userId="S::jelisharuthbbugnon@iskolarngbayan.pup.edu.ph::830674c3-dfb4-4830-b5c0-3f63c9ba3cb5" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{57B05083-CF5F-4EB1-A387-CB62BA723B9F}" name="Table1" displayName="Table1" ref="A17:F23" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57DDDBB9-3608-4D6C-A3D4-3217557B2844}" name="Table2" displayName="Table2" ref="A4:E10" totalsRowShown="0">
+  <autoFilter ref="A4:E10" xr:uid="{57DDDBB9-3608-4D6C-A3D4-3217557B2844}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{009B9CAD-370F-4437-BD26-03D10BE8DAA3}" name="Category"/>
+    <tableColumn id="2" xr3:uid="{3906F46E-5CD1-4E39-BC41-F563E81028D1}" name="2020"/>
+    <tableColumn id="3" xr3:uid="{AE67B109-6A8F-4207-9B32-3C9E6E6CEDAB}" name="2021"/>
+    <tableColumn id="4" xr3:uid="{37AA08B5-BB46-470D-876D-84E2F2AFA38C}" name="2022"/>
+    <tableColumn id="5" xr3:uid="{E5D896B1-6E99-45CB-8F76-767CBD6CCFE0}" name="2023"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{57B05083-CF5F-4EB1-A387-CB62BA723B9F}" name="Table1" displayName="Table1" ref="A17:F23" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="A17:F23" xr:uid="{57B05083-CF5F-4EB1-A387-CB62BA723B9F}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{73ED55CD-3210-4B17-BF6A-42759330A61D}" name="Date" dataDxfId="5" dataCellStyle="Date">
+    <tableColumn id="1" xr3:uid="{73ED55CD-3210-4B17-BF6A-42759330A61D}" name="Date" dataDxfId="14" dataCellStyle="Date">
       <calculatedColumnFormula>TODAY()-60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EC406B70-B0A2-492A-9965-F14A2E900F11}" name="Salesperson" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{E05AAE08-29CB-4C8A-8800-C5894C2066B3}" name="Product" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{4FEEB823-F031-4C14-BCFA-B511710CAB35}" name="Amount" dataDxfId="2" dataCellStyle="Currency [0]"/>
-    <tableColumn id="5" xr3:uid="{B6602CF5-810B-4CE1-985D-B6FAAB5689BC}" name="Target" dataDxfId="1" dataCellStyle="Currency [0]"/>
-    <tableColumn id="6" xr3:uid="{8B5505FA-7FF8-408A-9687-9C844777CC3C}" name="Achivement" dataDxfId="0" dataCellStyle="Currency [0]"/>
+    <tableColumn id="2" xr3:uid="{EC406B70-B0A2-492A-9965-F14A2E900F11}" name="Salesperson" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{E05AAE08-29CB-4C8A-8800-C5894C2066B3}" name="Product" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{4FEEB823-F031-4C14-BCFA-B511710CAB35}" name="Amount" dataDxfId="11" dataCellStyle="Currency [0]"/>
+    <tableColumn id="5" xr3:uid="{B6602CF5-810B-4CE1-985D-B6FAAB5689BC}" name="Target" dataDxfId="10" dataCellStyle="Currency [0]"/>
+    <tableColumn id="6" xr3:uid="{8B5505FA-7FF8-408A-9687-9C844777CC3C}" name="Achivement" dataDxfId="9" dataCellStyle="Currency [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2869,6 +3082,17 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A54" dT="2024-08-05T10:21:03.59" personId="{15C85AC4-A45A-4C8B-82EE-8E61D23E8DDE}" id="{6AF9F8D3-AE0B-493A-A7A4-FCCF6BCC55D8}">
+    <text>Copy the multiplier
+Highlight the values to be multiplied
+Paste special
+Operation (Multiply)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D48929F-33BB-449B-B253-48EE15F96405}">
   <sheetPr>
@@ -2877,22 +3101,24 @@
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="80.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="9.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="4" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="14.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="75.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="80.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="4"/>
+    <col min="6" max="6" width="9.109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="31.2">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -2900,11 +3126,11 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="5"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2918,7 +3144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="21">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -2928,318 +3154,318 @@
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84">
+    <row r="5" spans="1:7" ht="18" customHeight="1">
+      <c r="A5" s="83">
         <v>2.1</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="127"/>
+      <c r="D5" s="122"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="128" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="128" t="s">
+      <c r="C6" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="123" t="s">
         <v>210</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="18" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="128" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="128" t="s">
+      <c r="C7" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="123" t="s">
         <v>220</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="18" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="128" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="128" t="s">
+      <c r="C8" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="123" t="s">
         <v>215</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="18" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="128" t="s">
+      <c r="C9" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="123"/>
+    </row>
+    <row r="10" spans="1:7" ht="18" customHeight="1">
+      <c r="A10" s="83">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="128"/>
-    </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="84">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B10" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="127" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="127"/>
-    </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="122"/>
+    </row>
+    <row r="11" spans="1:7" ht="18" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="128" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="128" t="s">
+      <c r="C11" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="123" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="128" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="128" t="s">
+      <c r="C12" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="123" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="128" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="128" t="s">
+      <c r="C13" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="123" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="18" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="128" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="128" t="s">
+      <c r="C14" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="123" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="18" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="128" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="128" t="s">
+      <c r="C15" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="123" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="18" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="128" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="128" t="s">
+      <c r="C16" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="123" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="18" customHeight="1">
       <c r="A17" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="128" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="128" t="s">
+      <c r="C17" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="123" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="18" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="128" t="s">
+      <c r="C18" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="123" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18" customHeight="1">
+      <c r="A19" s="83">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B19" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="128" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="84">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B19" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="127" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="127"/>
-    </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="122"/>
+    </row>
+    <row r="20" spans="1:4" ht="18" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="128" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="128" t="s">
+      <c r="C20" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="123" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="18" customHeight="1">
       <c r="A21" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="128" t="s">
+      <c r="C21" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="123" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18" customHeight="1">
+      <c r="A22" s="83">
+        <v>2.4</v>
+      </c>
+      <c r="B22" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="128" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="84">
-        <v>2.4</v>
-      </c>
-      <c r="B22" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="127" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="127"/>
-    </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="122"/>
+    </row>
+    <row r="23" spans="1:4" ht="18" customHeight="1">
       <c r="A23" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="128" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="128" t="s">
+      <c r="C23" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="123" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="18" customHeight="1">
       <c r="A24" s="11" t="s">
         <v>49</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="128" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="128" t="s">
+      <c r="C24" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="123" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="18" customHeight="1">
       <c r="A25" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="128" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="128" t="s">
+      <c r="C25" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="123" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="18" customHeight="1">
       <c r="A31" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.9" customHeight="1">
       <c r="A32" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="15.9" customHeight="1">
       <c r="A33" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="15.9" customHeight="1">
       <c r="A34" s="16" t="s">
         <v>10</v>
       </c>
@@ -3247,19 +3473,19 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="rrKFtR7flt4EmgcJ2vP2yIPcFm7qjdWqCtGl4RZY3PveHiseFOBKqsmjqHH5rWauXe2woaOJsU6/UpTi3aJ2jQ==" saltValue="eygu+Q/OpjT1otZFe6tByA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B25">
+    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C5:C25">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Review Later"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Done but needs practice"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Done &amp; Understood"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B25">
-    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C25" xr:uid="{96962207-EE2F-4BE2-8F92-206607751FDF}">
@@ -3287,33 +3513,32 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" style="4" customWidth="1"/>
-    <col min="6" max="8" width="12.7109375" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="2" width="22.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" style="4" customWidth="1"/>
+    <col min="6" max="8" width="12.6640625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" s="36" t="s">
         <v>123</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18">
       <c r="A2" s="29" t="s">
         <v>209</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E3" s="87" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="E3" s="86" t="s">
         <v>83</v>
       </c>
       <c r="F3" s="31">
@@ -3329,7 +3554,7 @@
         <v>3186288.9799999995</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="39" t="s">
         <v>124</v>
       </c>
@@ -3355,7 +3580,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="40" t="s">
         <v>128</v>
       </c>
@@ -3381,7 +3606,7 @@
         <v>20534.850000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="40" t="s">
         <v>128</v>
       </c>
@@ -3407,7 +3632,7 @@
         <v>33585.840000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="40" t="s">
         <v>128</v>
       </c>
@@ -3433,7 +3658,7 @@
         <v>69883.259999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="40" t="s">
         <v>128</v>
       </c>
@@ -3459,7 +3684,7 @@
         <v>34645.599999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="40" t="s">
         <v>128</v>
       </c>
@@ -3485,7 +3710,7 @@
         <v>112047.45000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="40" t="s">
         <v>128</v>
       </c>
@@ -3511,7 +3736,7 @@
         <v>68853.2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="40" t="s">
         <v>128</v>
       </c>
@@ -3537,7 +3762,7 @@
         <v>21418.32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="40" t="s">
         <v>128</v>
       </c>
@@ -3563,7 +3788,7 @@
         <v>13219.26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="40" t="s">
         <v>128</v>
       </c>
@@ -3589,7 +3814,7 @@
         <v>10674.03</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="40" t="s">
         <v>128</v>
       </c>
@@ -3615,7 +3840,7 @@
         <v>22533.48</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="40" t="s">
         <v>128</v>
       </c>
@@ -3641,7 +3866,7 @@
         <v>19618.64</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="40" t="s">
         <v>128</v>
       </c>
@@ -3667,7 +3892,7 @@
         <v>47553.659999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="40" t="s">
         <v>128</v>
       </c>
@@ -3693,7 +3918,7 @@
         <v>32647</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="40" t="s">
         <v>128</v>
       </c>
@@ -3719,7 +3944,7 @@
         <v>187342</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="40" t="s">
         <v>128</v>
       </c>
@@ -3745,7 +3970,7 @@
         <v>69213.8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="40" t="s">
         <v>128</v>
       </c>
@@ -3771,7 +3996,7 @@
         <v>21523.95</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="40" t="s">
         <v>128</v>
       </c>
@@ -3797,7 +4022,7 @@
         <v>8885.8000000000011</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="40" t="s">
         <v>128</v>
       </c>
@@ -3823,7 +4048,7 @@
         <v>6149.4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="40" t="s">
         <v>128</v>
       </c>
@@ -3849,7 +4074,7 @@
         <v>21823.35</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="40" t="s">
         <v>128</v>
       </c>
@@ -3875,7 +4100,7 @@
         <v>19047.59</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="40" t="s">
         <v>128</v>
       </c>
@@ -3901,7 +4126,7 @@
         <v>49689.98</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="40" t="s">
         <v>128</v>
       </c>
@@ -3927,7 +4152,7 @@
         <v>36300.949999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="40" t="s">
         <v>128</v>
       </c>
@@ -3953,7 +4178,7 @@
         <v>111926.87999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="40" t="s">
         <v>128</v>
       </c>
@@ -3979,7 +4204,7 @@
         <v>46923.24</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="40" t="s">
         <v>128</v>
       </c>
@@ -4005,7 +4230,7 @@
         <v>17822.07</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="40" t="s">
         <v>128</v>
       </c>
@@ -4031,7 +4256,7 @@
         <v>14387.520000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="40" t="s">
         <v>128</v>
       </c>
@@ -4057,7 +4282,7 @@
         <v>14106.990000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="40" t="s">
         <v>128</v>
       </c>
@@ -4083,7 +4308,7 @@
         <v>4827</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="40" t="s">
         <v>128</v>
       </c>
@@ -4109,7 +4334,7 @@
         <v>8219.69</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="40" t="s">
         <v>128</v>
       </c>
@@ -4135,7 +4360,7 @@
         <v>6213.0199999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="40" t="s">
         <v>128</v>
       </c>
@@ -4161,7 +4386,7 @@
         <v>4693.68</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="40" t="s">
         <v>128</v>
       </c>
@@ -4187,7 +4412,7 @@
         <v>21909.39</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="40" t="s">
         <v>128</v>
       </c>
@@ -4213,7 +4438,7 @@
         <v>9953.48</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="40" t="s">
         <v>128</v>
       </c>
@@ -4239,7 +4464,7 @@
         <v>3620.96</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="40" t="s">
         <v>128</v>
       </c>
@@ -4265,7 +4490,7 @@
         <v>2416.2600000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="40" t="s">
         <v>128</v>
       </c>
@@ -4291,7 +4516,7 @@
         <v>2120.8000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="40" t="s">
         <v>128</v>
       </c>
@@ -4317,7 +4542,7 @@
         <v>2074.54</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="40" t="s">
         <v>128</v>
       </c>
@@ -4343,7 +4568,7 @@
         <v>1796.3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="40" t="s">
         <v>128</v>
       </c>
@@ -4369,7 +4594,7 @@
         <v>2365.6999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="40" t="s">
         <v>128</v>
       </c>
@@ -4395,7 +4620,7 @@
         <v>3142.8</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="40" t="s">
         <v>128</v>
       </c>
@@ -4421,7 +4646,7 @@
         <v>8853.6</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="40" t="s">
         <v>128</v>
       </c>
@@ -4447,7 +4672,7 @@
         <v>3631.6800000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="40" t="s">
         <v>128</v>
       </c>
@@ -4473,7 +4698,7 @@
         <v>1763.75</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="40" t="s">
         <v>128</v>
       </c>
@@ -4499,7 +4724,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="40" t="s">
         <v>128</v>
       </c>
@@ -4525,7 +4750,7 @@
         <v>1196.5800000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="40" t="s">
         <v>128</v>
       </c>
@@ -4551,7 +4776,7 @@
         <v>1963.5</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="40" t="s">
         <v>128</v>
       </c>
@@ -4577,7 +4802,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="40" t="s">
         <v>128</v>
       </c>
@@ -4603,7 +4828,7 @@
         <v>4556.74</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="40" t="s">
         <v>128</v>
       </c>
@@ -4629,7 +4854,7 @@
         <v>4160.33</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" s="40" t="s">
         <v>128</v>
       </c>
@@ -4655,7 +4880,7 @@
         <v>14484.650000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="40" t="s">
         <v>128</v>
       </c>
@@ -4681,7 +4906,7 @@
         <v>3484.15</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="40" t="s">
         <v>128</v>
       </c>
@@ -4707,7 +4932,7 @@
         <v>2213.1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="40" t="s">
         <v>128</v>
       </c>
@@ -4733,7 +4958,7 @@
         <v>1796.22</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="40" t="s">
         <v>128</v>
       </c>
@@ -4759,7 +4984,7 @@
         <v>710.01</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="40" t="s">
         <v>128</v>
       </c>
@@ -4785,7 +5010,7 @@
         <v>527.77</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" s="40" t="s">
         <v>128</v>
       </c>
@@ -4811,7 +5036,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" s="40" t="s">
         <v>128</v>
       </c>
@@ -4837,7 +5062,7 @@
         <v>1583.3999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="40" t="s">
         <v>128</v>
       </c>
@@ -4863,7 +5088,7 @@
         <v>1179.47</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="40" t="s">
         <v>128</v>
       </c>
@@ -4889,7 +5114,7 @@
         <v>5022</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="40" t="s">
         <v>128</v>
       </c>
@@ -4915,7 +5140,7 @@
         <v>1622.7</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="40" t="s">
         <v>128</v>
       </c>
@@ -4941,7 +5166,7 @@
         <v>820.62</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" s="40" t="s">
         <v>128</v>
       </c>
@@ -4967,7 +5192,7 @@
         <v>400.8</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="40" t="s">
         <v>128</v>
       </c>
@@ -4993,7 +5218,7 @@
         <v>223.2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="40" t="s">
         <v>144</v>
       </c>
@@ -5019,7 +5244,7 @@
         <v>4728.72</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" s="40" t="s">
         <v>144</v>
       </c>
@@ -5045,7 +5270,7 @@
         <v>13344.570000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" s="40" t="s">
         <v>144</v>
       </c>
@@ -5071,7 +5296,7 @@
         <v>10053.719999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" s="40" t="s">
         <v>144</v>
       </c>
@@ -5097,7 +5322,7 @@
         <v>6066.9</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" s="40" t="s">
         <v>144</v>
       </c>
@@ -5123,7 +5348,7 @@
         <v>25583.360000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" s="40" t="s">
         <v>144</v>
       </c>
@@ -5149,7 +5374,7 @@
         <v>24406.190000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" s="40" t="s">
         <v>144</v>
       </c>
@@ -5175,7 +5400,7 @@
         <v>7309.4000000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" s="40" t="s">
         <v>144</v>
       </c>
@@ -5201,7 +5426,7 @@
         <v>7295.2300000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" s="40" t="s">
         <v>144</v>
       </c>
@@ -5227,7 +5452,7 @@
         <v>1797.39</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" s="40" t="s">
         <v>144</v>
       </c>
@@ -5253,7 +5478,7 @@
         <v>8393.75</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" s="40" t="s">
         <v>144</v>
       </c>
@@ -5279,7 +5504,7 @@
         <v>12460.94</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" s="40" t="s">
         <v>144</v>
       </c>
@@ -5305,7 +5530,7 @@
         <v>10913.060000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" s="40" t="s">
         <v>144</v>
       </c>
@@ -5331,7 +5556,7 @@
         <v>10258.57</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" s="40" t="s">
         <v>144</v>
       </c>
@@ -5357,7 +5582,7 @@
         <v>31935.75</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="40" t="s">
         <v>144</v>
       </c>
@@ -5383,7 +5608,7 @@
         <v>21401.1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" s="40" t="s">
         <v>144</v>
       </c>
@@ -5409,7 +5634,7 @@
         <v>6749.1200000000008</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" s="40" t="s">
         <v>144</v>
       </c>
@@ -5435,7 +5660,7 @@
         <v>3361.4</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" s="40" t="s">
         <v>144</v>
       </c>
@@ -5461,7 +5686,7 @@
         <v>3626.1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="40" t="s">
         <v>144</v>
       </c>
@@ -5487,7 +5712,7 @@
         <v>5145.91</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" s="40" t="s">
         <v>144</v>
       </c>
@@ -5513,7 +5738,7 @@
         <v>8795.32</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" s="40" t="s">
         <v>144</v>
       </c>
@@ -5539,7 +5764,7 @@
         <v>15123.68</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" s="40" t="s">
         <v>144</v>
       </c>
@@ -5565,7 +5790,7 @@
         <v>6886.2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" s="40" t="s">
         <v>144</v>
       </c>
@@ -5591,7 +5816,7 @@
         <v>15649.42</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" s="40" t="s">
         <v>144</v>
       </c>
@@ -5617,7 +5842,7 @@
         <v>14607.599999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" s="40" t="s">
         <v>144</v>
       </c>
@@ -5643,7 +5868,7 @@
         <v>7234.5</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" s="40" t="s">
         <v>144</v>
       </c>
@@ -5669,7 +5894,7 @@
         <v>2366.08</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" s="40" t="s">
         <v>144</v>
       </c>
@@ -5695,7 +5920,7 @@
         <v>2046.0800000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" s="40" t="s">
         <v>144</v>
       </c>
@@ -5721,7 +5946,7 @@
         <v>1004.6400000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="40" t="s">
         <v>144</v>
       </c>
@@ -5747,7 +5972,7 @@
         <v>1316.6499999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" s="40" t="s">
         <v>144</v>
       </c>
@@ -5773,7 +5998,7 @@
         <v>2599.6799999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" s="40" t="s">
         <v>144</v>
       </c>
@@ -5799,7 +6024,7 @@
         <v>1112.1500000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" s="40" t="s">
         <v>144</v>
       </c>
@@ -5825,7 +6050,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" s="40" t="s">
         <v>144</v>
       </c>
@@ -5851,7 +6076,7 @@
         <v>3337.44</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" s="40" t="s">
         <v>144</v>
       </c>
@@ -5877,7 +6102,7 @@
         <v>892.5</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" s="40" t="s">
         <v>144</v>
       </c>
@@ -5903,7 +6128,7 @@
         <v>734.8</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" s="40" t="s">
         <v>144</v>
       </c>
@@ -5929,7 +6154,7 @@
         <v>726.15</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" s="40" t="s">
         <v>144</v>
       </c>
@@ -5955,7 +6180,7 @@
         <v>346.5</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" s="40" t="s">
         <v>144</v>
       </c>
@@ -5981,7 +6206,7 @@
         <v>603.44000000000005</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" s="40" t="s">
         <v>144</v>
       </c>
@@ -6007,7 +6232,7 @@
         <v>503.20000000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" s="40" t="s">
         <v>144</v>
       </c>
@@ -6033,7 +6258,7 @@
         <v>883.59999999999991</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" s="40" t="s">
         <v>144</v>
       </c>
@@ -6059,7 +6284,7 @@
         <v>1588.6499999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" s="40" t="s">
         <v>144</v>
       </c>
@@ -6085,7 +6310,7 @@
         <v>1007.28</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" s="40" t="s">
         <v>144</v>
       </c>
@@ -6111,7 +6336,7 @@
         <v>460.90000000000003</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" s="40" t="s">
         <v>144</v>
       </c>
@@ -6137,7 +6362,7 @@
         <v>178.01999999999998</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" s="40" t="s">
         <v>144</v>
       </c>
@@ -6163,7 +6388,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" s="40" t="s">
         <v>144</v>
       </c>
@@ -6189,7 +6414,7 @@
         <v>479.16</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" s="40" t="s">
         <v>144</v>
       </c>
@@ -6215,7 +6440,7 @@
         <v>492.7</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" s="40" t="s">
         <v>144</v>
       </c>
@@ -6241,7 +6466,7 @@
         <v>855.29</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" s="40" t="s">
         <v>144</v>
       </c>
@@ -6267,7 +6492,7 @@
         <v>1322.6599999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" s="40" t="s">
         <v>144</v>
       </c>
@@ -6293,7 +6518,7 @@
         <v>4348.96</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" s="40" t="s">
         <v>144</v>
       </c>
@@ -6319,7 +6544,7 @@
         <v>1988.48</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" s="40" t="s">
         <v>144</v>
       </c>
@@ -6345,7 +6570,7 @@
         <v>452.32</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" s="40" t="s">
         <v>144</v>
       </c>
@@ -6371,7 +6596,7 @@
         <v>306.15999999999997</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" s="40" t="s">
         <v>144</v>
       </c>
@@ -6397,7 +6622,7 @@
         <v>194.04</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" s="40" t="s">
         <v>144</v>
       </c>
@@ -6423,7 +6648,7 @@
         <v>274.77</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" s="40" t="s">
         <v>144</v>
       </c>
@@ -6449,7 +6674,7 @@
         <v>370.48</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" s="40" t="s">
         <v>144</v>
       </c>
@@ -6475,7 +6700,7 @@
         <v>219.78</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" s="40" t="s">
         <v>144</v>
       </c>
@@ -6501,7 +6726,7 @@
         <v>236.88</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" s="40" t="s">
         <v>144</v>
       </c>
@@ -6527,7 +6752,7 @@
         <v>1344.72</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" s="40" t="s">
         <v>144</v>
       </c>
@@ -6553,7 +6778,7 @@
         <v>331.2</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128" s="40" t="s">
         <v>144</v>
       </c>
@@ -6579,7 +6804,7 @@
         <v>306.8</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" s="40" t="s">
         <v>144</v>
       </c>
@@ -6605,7 +6830,7 @@
         <v>223.3</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" s="40" t="s">
         <v>144</v>
       </c>
@@ -6631,7 +6856,7 @@
         <v>101.53</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" s="40" t="s">
         <v>146</v>
       </c>
@@ -6657,7 +6882,7 @@
         <v>13081.820000000002</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" s="40" t="s">
         <v>146</v>
       </c>
@@ -6683,7 +6908,7 @@
         <v>17043.3</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" s="40" t="s">
         <v>146</v>
       </c>
@@ -6709,7 +6934,7 @@
         <v>17211.73</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" s="40" t="s">
         <v>146</v>
       </c>
@@ -6735,7 +6960,7 @@
         <v>21793.460000000003</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" s="40" t="s">
         <v>146</v>
       </c>
@@ -6761,7 +6986,7 @@
         <v>117954.72</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" s="40" t="s">
         <v>146</v>
       </c>
@@ -6787,7 +7012,7 @@
         <v>32749</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" s="40" t="s">
         <v>146</v>
       </c>
@@ -6813,7 +7038,7 @@
         <v>13196.16</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" s="40" t="s">
         <v>146</v>
       </c>
@@ -6839,7 +7064,7 @@
         <v>9387.64</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" s="40" t="s">
         <v>146</v>
       </c>
@@ -6865,7 +7090,7 @@
         <v>6049.1399999999994</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" s="40" t="s">
         <v>146</v>
       </c>
@@ -6891,7 +7116,7 @@
         <v>15536.83</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" s="40" t="s">
         <v>146</v>
       </c>
@@ -6917,7 +7142,7 @@
         <v>20890.84</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142" s="40" t="s">
         <v>146</v>
       </c>
@@ -6943,7 +7168,7 @@
         <v>40954.100000000006</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" s="40" t="s">
         <v>146</v>
       </c>
@@ -6969,7 +7194,7 @@
         <v>13164.45</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" s="40" t="s">
         <v>146</v>
       </c>
@@ -6995,7 +7220,7 @@
         <v>96307.199999999997</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" s="40" t="s">
         <v>146</v>
       </c>
@@ -7021,7 +7246,7 @@
         <v>32415.599999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" s="40" t="s">
         <v>146</v>
       </c>
@@ -7047,7 +7272,7 @@
         <v>6825.72</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" s="40" t="s">
         <v>146</v>
       </c>
@@ -7073,7 +7298,7 @@
         <v>9197.24</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" s="40" t="s">
         <v>146</v>
       </c>
@@ -7099,7 +7324,7 @@
         <v>8318.2000000000007</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" s="40" t="s">
         <v>146</v>
       </c>
@@ -7125,7 +7350,7 @@
         <v>13302.099999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" s="40" t="s">
         <v>146</v>
       </c>
@@ -7151,7 +7376,7 @@
         <v>13976.55</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" s="40" t="s">
         <v>146</v>
       </c>
@@ -7177,7 +7402,7 @@
         <v>16335.150000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" s="40" t="s">
         <v>146</v>
       </c>
@@ -7203,7 +7428,7 @@
         <v>17013.36</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153" s="40" t="s">
         <v>146</v>
       </c>
@@ -7229,7 +7454,7 @@
         <v>35834.700000000004</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154" s="40" t="s">
         <v>146</v>
       </c>
@@ -7255,7 +7480,7 @@
         <v>31925.46</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155" s="40" t="s">
         <v>146</v>
       </c>
@@ -7281,7 +7506,7 @@
         <v>9202.9</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8">
       <c r="A156" s="40" t="s">
         <v>146</v>
       </c>
@@ -7307,7 +7532,7 @@
         <v>6796.4999999999991</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8">
       <c r="A157" s="40" t="s">
         <v>146</v>
       </c>
@@ -7333,7 +7558,7 @@
         <v>4248.7699999999995</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158" s="40" t="s">
         <v>146</v>
       </c>
@@ -7359,7 +7584,7 @@
         <v>1671.05</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159" s="40" t="s">
         <v>146</v>
       </c>
@@ -7385,7 +7610,7 @@
         <v>1325.3500000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8">
       <c r="A160" s="40" t="s">
         <v>146</v>
       </c>
@@ -7411,7 +7636,7 @@
         <v>4696.8100000000004</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" s="40" t="s">
         <v>146</v>
       </c>
@@ -7437,7 +7662,7 @@
         <v>3684.1</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162" s="40" t="s">
         <v>146</v>
       </c>
@@ -7463,7 +7688,7 @@
         <v>6718.8</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163" s="40" t="s">
         <v>146</v>
       </c>
@@ -7489,7 +7714,7 @@
         <v>4088.2499999999995</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" s="40" t="s">
         <v>146</v>
       </c>
@@ -7515,7 +7740,7 @@
         <v>1977.78</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" s="40" t="s">
         <v>146</v>
       </c>
@@ -7541,7 +7766,7 @@
         <v>1251.3600000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166" s="40" t="s">
         <v>146</v>
       </c>
@@ -7567,7 +7792,7 @@
         <v>772.8</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167" s="40" t="s">
         <v>146</v>
       </c>
@@ -7593,7 +7818,7 @@
         <v>727.65</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" s="40" t="s">
         <v>146</v>
       </c>
@@ -7619,7 +7844,7 @@
         <v>1261.98</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169" s="40" t="s">
         <v>146</v>
       </c>
@@ -7645,7 +7870,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170" s="40" t="s">
         <v>146</v>
       </c>
@@ -7671,7 +7896,7 @@
         <v>1293.6000000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" s="40" t="s">
         <v>146</v>
       </c>
@@ -7697,7 +7922,7 @@
         <v>2901.54</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" s="40" t="s">
         <v>146</v>
       </c>
@@ -7723,7 +7948,7 @@
         <v>2906.66</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173" s="40" t="s">
         <v>146</v>
       </c>
@@ -7749,7 +7974,7 @@
         <v>686.4</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174" s="40" t="s">
         <v>146</v>
       </c>
@@ -7775,7 +8000,7 @@
         <v>673.19999999999993</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175" s="40" t="s">
         <v>146</v>
       </c>
@@ -7801,7 +8026,7 @@
         <v>506.24000000000007</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176" s="40" t="s">
         <v>146</v>
       </c>
@@ -7827,7 +8052,7 @@
         <v>1560.78</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8">
       <c r="A177" s="40" t="s">
         <v>146</v>
       </c>
@@ -7853,7 +8078,7 @@
         <v>2064.15</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8">
       <c r="A178" s="40" t="s">
         <v>146</v>
       </c>
@@ -7879,7 +8104,7 @@
         <v>2429.8999999999996</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8">
       <c r="A179" s="40" t="s">
         <v>146</v>
       </c>
@@ -7905,7 +8130,7 @@
         <v>2652.68</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8">
       <c r="A180" s="40" t="s">
         <v>146</v>
       </c>
@@ -7931,7 +8156,7 @@
         <v>5688.3600000000006</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8">
       <c r="A181" s="40" t="s">
         <v>146</v>
       </c>
@@ -7957,7 +8182,7 @@
         <v>2974.1400000000003</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8">
       <c r="A182" s="40" t="s">
         <v>146</v>
       </c>
@@ -7983,7 +8208,7 @@
         <v>1360.68</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
       <c r="A183" s="40" t="s">
         <v>146</v>
       </c>
@@ -8009,7 +8234,7 @@
         <v>895.16000000000008</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8">
       <c r="A184" s="40" t="s">
         <v>146</v>
       </c>
@@ -8035,7 +8260,7 @@
         <v>413.17</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8">
       <c r="A185" s="40" t="s">
         <v>146</v>
       </c>
@@ -8061,7 +8286,7 @@
         <v>739.88</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8">
       <c r="A186" s="40" t="s">
         <v>146</v>
       </c>
@@ -8087,7 +8312,7 @@
         <v>420.21</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8">
       <c r="A187" s="40" t="s">
         <v>146</v>
       </c>
@@ -8113,7 +8338,7 @@
         <v>904.96</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8">
       <c r="A188" s="40" t="s">
         <v>146</v>
       </c>
@@ -8139,7 +8364,7 @@
         <v>586.15</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8">
       <c r="A189" s="40" t="s">
         <v>146</v>
       </c>
@@ -8165,7 +8390,7 @@
         <v>1681.1200000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8">
       <c r="A190" s="40" t="s">
         <v>146</v>
       </c>
@@ -8191,7 +8416,7 @@
         <v>938.7299999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8">
       <c r="A191" s="40" t="s">
         <v>146</v>
       </c>
@@ -8217,7 +8442,7 @@
         <v>217.76999999999998</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8">
       <c r="A192" s="40" t="s">
         <v>146</v>
       </c>
@@ -8243,7 +8468,7 @@
         <v>192.64000000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193" s="40" t="s">
         <v>146</v>
       </c>
@@ -8269,7 +8494,7 @@
         <v>310.24</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8">
       <c r="A194" s="40" t="s">
         <v>148</v>
       </c>
@@ -8295,7 +8520,7 @@
         <v>20393</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8">
       <c r="A195" s="40" t="s">
         <v>148</v>
       </c>
@@ -8321,7 +8546,7 @@
         <v>21624.510000000002</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8">
       <c r="A196" s="40" t="s">
         <v>148</v>
       </c>
@@ -8347,7 +8572,7 @@
         <v>22593.360000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8">
       <c r="A197" s="40" t="s">
         <v>148</v>
       </c>
@@ -8373,7 +8598,7 @@
         <v>24230.560000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
       <c r="A198" s="40" t="s">
         <v>148</v>
       </c>
@@ -8399,7 +8624,7 @@
         <v>49861.4</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
       <c r="A199" s="40" t="s">
         <v>148</v>
       </c>
@@ -8425,7 +8650,7 @@
         <v>36476.15</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200" s="40" t="s">
         <v>148</v>
       </c>
@@ -8451,7 +8676,7 @@
         <v>11917.5</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8">
       <c r="A201" s="40" t="s">
         <v>148</v>
       </c>
@@ -8477,7 +8702,7 @@
         <v>9776.9399999999987</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8">
       <c r="A202" s="40" t="s">
         <v>148</v>
       </c>
@@ -8503,7 +8728,7 @@
         <v>6083.64</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8">
       <c r="A203" s="40" t="s">
         <v>148</v>
       </c>
@@ -8529,7 +8754,7 @@
         <v>12515.18</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8">
       <c r="A204" s="40" t="s">
         <v>148</v>
       </c>
@@ -8555,7 +8780,7 @@
         <v>22394.620000000003</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8">
       <c r="A205" s="40" t="s">
         <v>148</v>
       </c>
@@ -8581,7 +8806,7 @@
         <v>24572.16</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8">
       <c r="A206" s="40" t="s">
         <v>148</v>
       </c>
@@ -8607,7 +8832,7 @@
         <v>21093.45</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8">
       <c r="A207" s="40" t="s">
         <v>148</v>
       </c>
@@ -8633,7 +8858,7 @@
         <v>71101.8</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8">
       <c r="A208" s="40" t="s">
         <v>148</v>
       </c>
@@ -8659,7 +8884,7 @@
         <v>24725.56</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8">
       <c r="A209" s="40" t="s">
         <v>148</v>
       </c>
@@ -8685,7 +8910,7 @@
         <v>14951.2</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8">
       <c r="A210" s="40" t="s">
         <v>148</v>
       </c>
@@ -8711,7 +8936,7 @@
         <v>7272.6600000000008</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8">
       <c r="A211" s="40" t="s">
         <v>148</v>
       </c>
@@ -8737,7 +8962,7 @@
         <v>6800.76</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8">
       <c r="A212" s="40" t="s">
         <v>148</v>
       </c>
@@ -8763,7 +8988,7 @@
         <v>13736.519999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8">
       <c r="A213" s="40" t="s">
         <v>148</v>
       </c>
@@ -8789,7 +9014,7 @@
         <v>19532.39</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8">
       <c r="A214" s="40" t="s">
         <v>148</v>
       </c>
@@ -8815,7 +9040,7 @@
         <v>22458.63</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8">
       <c r="A215" s="40" t="s">
         <v>148</v>
       </c>
@@ -8841,7 +9066,7 @@
         <v>16003.26</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8">
       <c r="A216" s="40" t="s">
         <v>148</v>
       </c>
@@ -8867,7 +9092,7 @@
         <v>63159.39</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8">
       <c r="A217" s="40" t="s">
         <v>148</v>
       </c>
@@ -8893,7 +9118,7 @@
         <v>23463</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8">
       <c r="A218" s="40" t="s">
         <v>148</v>
       </c>
@@ -8919,7 +9144,7 @@
         <v>11432.880000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8">
       <c r="A219" s="40" t="s">
         <v>148</v>
       </c>
@@ -8945,7 +9170,7 @@
         <v>3583.44</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8">
       <c r="A220" s="40" t="s">
         <v>148</v>
       </c>
@@ -8971,7 +9196,7 @@
         <v>7694.18</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8">
       <c r="A221" s="40" t="s">
         <v>148</v>
       </c>
@@ -8997,7 +9222,7 @@
         <v>1662.1399999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8">
       <c r="A222" s="40" t="s">
         <v>148</v>
       </c>
@@ -9023,7 +9248,7 @@
         <v>2729.44</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8">
       <c r="A223" s="40" t="s">
         <v>148</v>
       </c>
@@ -9049,7 +9274,7 @@
         <v>3583.44</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8">
       <c r="A224" s="40" t="s">
         <v>148</v>
       </c>
@@ -9075,7 +9300,7 @@
         <v>1660.8</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8">
       <c r="A225" s="40" t="s">
         <v>148</v>
       </c>
@@ -9101,7 +9326,7 @@
         <v>10080.18</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8">
       <c r="A226" s="40" t="s">
         <v>148</v>
       </c>
@@ -9127,7 +9352,7 @@
         <v>4542.59</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8">
       <c r="A227" s="40" t="s">
         <v>148</v>
       </c>
@@ -9153,7 +9378,7 @@
         <v>2321.46</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8">
       <c r="A228" s="40" t="s">
         <v>148</v>
       </c>
@@ -9179,7 +9404,7 @@
         <v>2216.46</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8">
       <c r="A229" s="40" t="s">
         <v>148</v>
       </c>
@@ -9205,7 +9430,7 @@
         <v>1043.28</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8">
       <c r="A230" s="40" t="s">
         <v>148</v>
       </c>
@@ -9231,7 +9456,7 @@
         <v>1337.7</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8">
       <c r="A231" s="40" t="s">
         <v>148</v>
       </c>
@@ -9257,7 +9482,7 @@
         <v>742.98</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8">
       <c r="A232" s="40" t="s">
         <v>148</v>
       </c>
@@ -9283,7 +9508,7 @@
         <v>2195.4499999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8">
       <c r="A233" s="40" t="s">
         <v>148</v>
       </c>
@@ -9309,7 +9534,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8">
       <c r="A234" s="40" t="s">
         <v>148</v>
       </c>
@@ -9335,7 +9560,7 @@
         <v>7431.45</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8">
       <c r="A235" s="40" t="s">
         <v>148</v>
       </c>
@@ -9361,7 +9586,7 @@
         <v>965.34</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8">
       <c r="A236" s="40" t="s">
         <v>148</v>
       </c>
@@ -9387,7 +9612,7 @@
         <v>771.88</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8">
       <c r="A237" s="40" t="s">
         <v>148</v>
       </c>
@@ -9413,7 +9638,7 @@
         <v>625.04000000000008</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8">
       <c r="A238" s="40" t="s">
         <v>148</v>
       </c>
@@ -9439,7 +9664,7 @@
         <v>543.9</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8">
       <c r="A239" s="40" t="s">
         <v>148</v>
       </c>
@@ -9465,7 +9690,7 @@
         <v>1419.89</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8">
       <c r="A240" s="40" t="s">
         <v>148</v>
       </c>
@@ -9491,7 +9716,7 @@
         <v>1128.19</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8">
       <c r="A241" s="40" t="s">
         <v>148</v>
       </c>
@@ -9517,7 +9742,7 @@
         <v>3454.21</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8">
       <c r="A242" s="40" t="s">
         <v>148</v>
       </c>
@@ -9543,7 +9768,7 @@
         <v>1163.79</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8">
       <c r="A243" s="40" t="s">
         <v>148</v>
       </c>
@@ -9569,7 +9794,7 @@
         <v>8342.4</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8">
       <c r="A244" s="40" t="s">
         <v>148</v>
       </c>
@@ -9595,7 +9820,7 @@
         <v>2140.86</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8">
       <c r="A245" s="40" t="s">
         <v>148</v>
       </c>
@@ -9621,7 +9846,7 @@
         <v>941.85</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8">
       <c r="A246" s="40" t="s">
         <v>148</v>
       </c>
@@ -9647,7 +9872,7 @@
         <v>704.06</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8">
       <c r="A247" s="40" t="s">
         <v>148</v>
       </c>
@@ -9673,7 +9898,7 @@
         <v>540.54000000000008</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8">
       <c r="A248" s="40" t="s">
         <v>148</v>
       </c>
@@ -9699,7 +9924,7 @@
         <v>525.6</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8">
       <c r="A249" s="40" t="s">
         <v>148</v>
       </c>
@@ -9725,7 +9950,7 @@
         <v>661.1</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8">
       <c r="A250" s="40" t="s">
         <v>148</v>
       </c>
@@ -9751,7 +9976,7 @@
         <v>871.24</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8">
       <c r="A251" s="40" t="s">
         <v>148</v>
       </c>
@@ -9777,7 +10002,7 @@
         <v>909.44</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8">
       <c r="A252" s="40" t="s">
         <v>148</v>
       </c>
@@ -9803,7 +10028,7 @@
         <v>3792</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8">
       <c r="A253" s="40" t="s">
         <v>148</v>
       </c>
@@ -9829,7 +10054,7 @@
         <v>674.86</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8">
       <c r="A254" s="40" t="s">
         <v>148</v>
       </c>
@@ -9855,7 +10080,7 @@
         <v>556.69999999999993</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8">
       <c r="A255" s="40" t="s">
         <v>148</v>
       </c>
@@ -9881,7 +10106,7 @@
         <v>216.75</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8">
       <c r="A256" s="40" t="s">
         <v>148</v>
       </c>
@@ -9907,7 +10132,7 @@
         <v>254.87</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8">
       <c r="A257" s="40" t="s">
         <v>151</v>
       </c>
@@ -9933,7 +10158,7 @@
         <v>3971.2000000000003</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8">
       <c r="A258" s="40" t="s">
         <v>151</v>
       </c>
@@ -9959,7 +10184,7 @@
         <v>6661.6500000000005</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8">
       <c r="A259" s="40" t="s">
         <v>151</v>
       </c>
@@ -9985,7 +10210,7 @@
         <v>11050.6</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8">
       <c r="A260" s="40" t="s">
         <v>151</v>
       </c>
@@ -10011,7 +10236,7 @@
         <v>5944.12</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8">
       <c r="A261" s="40" t="s">
         <v>151</v>
       </c>
@@ -10037,7 +10262,7 @@
         <v>23889.600000000002</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8">
       <c r="A262" s="40" t="s">
         <v>151</v>
       </c>
@@ -10063,7 +10288,7 @@
         <v>13365.580000000002</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8">
       <c r="A263" s="40" t="s">
         <v>151</v>
       </c>
@@ -10089,7 +10314,7 @@
         <v>4086.81</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8">
       <c r="A264" s="40" t="s">
         <v>151</v>
       </c>
@@ -10115,7 +10340,7 @@
         <v>4050.26</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8">
       <c r="A265" s="40" t="s">
         <v>151</v>
       </c>
@@ -10141,7 +10366,7 @@
         <v>1912.5600000000002</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8">
       <c r="A266" s="40" t="s">
         <v>151</v>
       </c>
@@ -10167,7 +10392,7 @@
         <v>4023</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8">
       <c r="A267" s="40" t="s">
         <v>151</v>
       </c>
@@ -10193,7 +10418,7 @@
         <v>4169.08</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8">
       <c r="A268" s="40" t="s">
         <v>151</v>
       </c>
@@ -10219,7 +10444,7 @@
         <v>7877.88</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8">
       <c r="A269" s="40" t="s">
         <v>151</v>
       </c>
@@ -10245,7 +10470,7 @@
         <v>5193.08</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8">
       <c r="A270" s="40" t="s">
         <v>151</v>
       </c>
@@ -10271,7 +10496,7 @@
         <v>15028.18</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8">
       <c r="A271" s="40" t="s">
         <v>151</v>
       </c>
@@ -10297,7 +10522,7 @@
         <v>9191.2799999999988</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8">
       <c r="A272" s="40" t="s">
         <v>151</v>
       </c>
@@ -10323,7 +10548,7 @@
         <v>5135.58</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8">
       <c r="A273" s="40" t="s">
         <v>151</v>
       </c>
@@ -10349,7 +10574,7 @@
         <v>2153.52</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8">
       <c r="A274" s="40" t="s">
         <v>151</v>
       </c>
@@ -10375,7 +10600,7 @@
         <v>1412.3999999999999</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8">
       <c r="A275" s="40" t="s">
         <v>151</v>
       </c>
@@ -10401,7 +10626,7 @@
         <v>4493.8900000000003</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8">
       <c r="A276" s="40" t="s">
         <v>151</v>
       </c>
@@ -10427,7 +10652,7 @@
         <v>6739.47</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8">
       <c r="A277" s="40" t="s">
         <v>151</v>
       </c>
@@ -10453,7 +10678,7 @@
         <v>7882.9</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8">
       <c r="A278" s="40" t="s">
         <v>151</v>
       </c>
@@ -10479,7 +10704,7 @@
         <v>5277.9</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8">
       <c r="A279" s="40" t="s">
         <v>151</v>
       </c>
@@ -10505,7 +10730,7 @@
         <v>27765.54</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8">
       <c r="A280" s="40" t="s">
         <v>151</v>
       </c>
@@ -10531,7 +10756,7 @@
         <v>8975.2000000000007</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8">
       <c r="A281" s="40" t="s">
         <v>151</v>
       </c>
@@ -10557,7 +10782,7 @@
         <v>2572.7999999999997</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8">
       <c r="A282" s="40" t="s">
         <v>151</v>
       </c>
@@ -10583,7 +10808,7 @@
         <v>2588.75</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8">
       <c r="A283" s="40" t="s">
         <v>151</v>
       </c>
@@ -10609,7 +10834,7 @@
         <v>1885.98</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8">
       <c r="A284" s="40" t="s">
         <v>151</v>
       </c>
@@ -10635,7 +10860,7 @@
         <v>587.18999999999994</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8">
       <c r="A285" s="40" t="s">
         <v>151</v>
       </c>
@@ -10661,7 +10886,7 @@
         <v>1019.1500000000001</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8">
       <c r="A286" s="40" t="s">
         <v>151</v>
       </c>
@@ -10687,7 +10912,7 @@
         <v>1455.82</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8">
       <c r="A287" s="40" t="s">
         <v>151</v>
       </c>
@@ -10713,7 +10938,7 @@
         <v>1023.4</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8">
       <c r="A288" s="40" t="s">
         <v>151</v>
       </c>
@@ -10739,7 +10964,7 @@
         <v>3701.94</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8">
       <c r="A289" s="40" t="s">
         <v>151</v>
       </c>
@@ -10765,7 +10990,7 @@
         <v>1447.38</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8">
       <c r="A290" s="40" t="s">
         <v>151</v>
       </c>
@@ -10791,7 +11016,7 @@
         <v>648.81000000000006</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8">
       <c r="A291" s="40" t="s">
         <v>151</v>
       </c>
@@ -10817,7 +11042,7 @@
         <v>377.65</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8">
       <c r="A292" s="40" t="s">
         <v>151</v>
       </c>
@@ -10843,7 +11068,7 @@
         <v>280.44</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8">
       <c r="A293" s="40" t="s">
         <v>151</v>
       </c>
@@ -10869,7 +11094,7 @@
         <v>315.83999999999997</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8">
       <c r="A294" s="40" t="s">
         <v>151</v>
       </c>
@@ -10895,7 +11120,7 @@
         <v>368.08</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8">
       <c r="A295" s="40" t="s">
         <v>151</v>
       </c>
@@ -10921,7 +11146,7 @@
         <v>689.7</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8">
       <c r="A296" s="40" t="s">
         <v>151</v>
       </c>
@@ -10947,7 +11172,7 @@
         <v>609.03</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8">
       <c r="A297" s="40" t="s">
         <v>151</v>
       </c>
@@ -10973,7 +11198,7 @@
         <v>1663.45</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8">
       <c r="A298" s="40" t="s">
         <v>151</v>
       </c>
@@ -10999,7 +11224,7 @@
         <v>540.54</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8">
       <c r="A299" s="40" t="s">
         <v>151</v>
       </c>
@@ -11025,7 +11250,7 @@
         <v>260.39999999999998</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8">
       <c r="A300" s="40" t="s">
         <v>151</v>
       </c>
@@ -11051,7 +11276,7 @@
         <v>128.52000000000001</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8">
       <c r="A301" s="40" t="s">
         <v>151</v>
       </c>
@@ -11077,7 +11302,7 @@
         <v>101.12</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8">
       <c r="A302" s="40" t="s">
         <v>151</v>
       </c>
@@ -11103,7 +11328,7 @@
         <v>661.1</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8">
       <c r="A303" s="40" t="s">
         <v>151</v>
       </c>
@@ -11129,7 +11354,7 @@
         <v>788.07</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8">
       <c r="A304" s="40" t="s">
         <v>151</v>
       </c>
@@ -11155,7 +11380,7 @@
         <v>786.24</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8">
       <c r="A305" s="40" t="s">
         <v>151</v>
       </c>
@@ -11181,7 +11406,7 @@
         <v>711.57999999999993</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8">
       <c r="A306" s="40" t="s">
         <v>151</v>
       </c>
@@ -11207,7 +11432,7 @@
         <v>2117.52</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8">
       <c r="A307" s="40" t="s">
         <v>151</v>
       </c>
@@ -11233,7 +11458,7 @@
         <v>1079.83</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8">
       <c r="A308" s="40" t="s">
         <v>151</v>
       </c>
@@ -11259,7 +11484,7 @@
         <v>358.83000000000004</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8">
       <c r="A309" s="40" t="s">
         <v>151</v>
       </c>
@@ -11285,7 +11510,7 @@
         <v>254.15</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8">
       <c r="A310" s="40" t="s">
         <v>151</v>
       </c>
@@ -11311,7 +11536,7 @@
         <v>151.88999999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8">
       <c r="A311" s="40" t="s">
         <v>151</v>
       </c>
@@ -11337,7 +11562,7 @@
         <v>150.15</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8">
       <c r="A312" s="40" t="s">
         <v>151</v>
       </c>
@@ -11363,7 +11588,7 @@
         <v>225.72000000000003</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8">
       <c r="A313" s="40" t="s">
         <v>151</v>
       </c>
@@ -11389,7 +11614,7 @@
         <v>276.06</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8">
       <c r="A314" s="40" t="s">
         <v>151</v>
       </c>
@@ -11415,7 +11640,7 @@
         <v>239.04</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8">
       <c r="A315" s="40" t="s">
         <v>151</v>
       </c>
@@ -11441,7 +11666,7 @@
         <v>1070.28</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8">
       <c r="A316" s="40" t="s">
         <v>151</v>
       </c>
@@ -11467,7 +11692,7 @@
         <v>252.34</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8">
       <c r="A317" s="40" t="s">
         <v>151</v>
       </c>
@@ -11493,7 +11718,7 @@
         <v>195.11</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8">
       <c r="A318" s="40" t="s">
         <v>151</v>
       </c>
@@ -11519,7 +11744,7 @@
         <v>132.16000000000003</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8">
       <c r="A319" s="40" t="s">
         <v>151</v>
       </c>
@@ -11547,7 +11772,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:XFD3">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11555,19 +11780,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0049D718-3D16-4A05-A847-863373CD8754}">
-  <dimension ref="A1:H72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0049D718-3D16-4A05-A847-863373CD8754}">
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A67" zoomScale="139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="4" customWidth="1"/>
-    <col min="2" max="8" width="12.7109375" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="24.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="4" customWidth="1"/>
+    <col min="3" max="8" width="12.6640625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="21">
       <c r="A1" s="17" t="s">
         <v>65</v>
       </c>
@@ -11575,7 +11803,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="20" t="s">
         <v>153</v>
       </c>
@@ -11586,21 +11814,21 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="86">
+      <c r="B4" s="85">
         <v>2020</v>
       </c>
-      <c r="C4" s="86">
+      <c r="C4" s="85">
         <v>2021</v>
       </c>
-      <c r="D4" s="86">
+      <c r="D4" s="85">
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="23" t="s">
         <v>67</v>
       </c>
@@ -11617,7 +11845,7 @@
         <v>1011803.7000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="23" t="s">
         <v>68</v>
       </c>
@@ -11634,7 +11862,7 @@
         <v>1027789.0899999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="23" t="s">
         <v>69</v>
       </c>
@@ -11651,7 +11879,7 @@
         <v>807764.97000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="23" t="s">
         <v>70</v>
       </c>
@@ -11668,7 +11896,7 @@
         <v>150166.15999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="23" t="s">
         <v>71</v>
       </c>
@@ -11685,7 +11913,7 @@
         <v>63403.229999999981</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="23" t="s">
         <v>72</v>
       </c>
@@ -11702,7 +11930,7 @@
         <v>92482.490000000034</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="23" t="s">
         <v>73</v>
       </c>
@@ -11719,7 +11947,7 @@
         <v>32879.340000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="25" t="s">
         <v>74</v>
       </c>
@@ -11736,7 +11964,7 @@
         <v>3186288.9800000004</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="27" t="s">
         <v>75</v>
       </c>
@@ -11753,354 +11981,522 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="18">
       <c r="A15" s="29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="86">
+      <c r="B17" s="85">
         <v>2020</v>
       </c>
-      <c r="C17" s="86">
+      <c r="C17" s="85">
         <v>2021</v>
       </c>
-      <c r="D17" s="86">
+      <c r="D17" s="85">
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="24">
+        <f>SUMIFS(Dataset!F:F,Dataset!$B:$B,$A18)</f>
+        <v>1015191.8</v>
+      </c>
+      <c r="C18" s="24">
+        <f>SUMIFS(Dataset!G:G,Dataset!$B:$B,$A18)</f>
+        <v>856906.3600000001</v>
+      </c>
+      <c r="D18" s="24">
+        <f>SUMIFS(Dataset!H:H,Dataset!$B:$B,$A18)</f>
+        <v>1011803.7000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="24">
+        <f>SUMIFS(Dataset!F:F,Dataset!$B:$B,$A19)</f>
+        <v>1042842.89</v>
+      </c>
+      <c r="C19" s="24">
+        <f>SUMIFS(Dataset!G:G,Dataset!$B:$B,$A19)</f>
+        <v>936920.05999999971</v>
+      </c>
+      <c r="D19" s="24">
+        <f>SUMIFS(Dataset!H:H,Dataset!$B:$B,$A19)</f>
+        <v>1027789.0899999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="24">
+        <f>SUMIFS(Dataset!F:F,Dataset!$B:$B,$A20)</f>
+        <v>853491.35000000021</v>
+      </c>
+      <c r="C20" s="24">
+        <f>SUMIFS(Dataset!G:G,Dataset!$B:$B,$A20)</f>
+        <v>722663.12999999989</v>
+      </c>
+      <c r="D20" s="24">
+        <f>SUMIFS(Dataset!H:H,Dataset!$B:$B,$A20)</f>
+        <v>807764.97000000009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="24">
+        <f>SUMIFS(Dataset!F:F,Dataset!$B:$B,$A21)</f>
+        <v>145263.94999999998</v>
+      </c>
+      <c r="C21" s="24">
+        <f>SUMIFS(Dataset!G:G,Dataset!$B:$B,$A21)</f>
+        <v>130083.96000000002</v>
+      </c>
+      <c r="D21" s="24">
+        <f>SUMIFS(Dataset!H:H,Dataset!$B:$B,$A21)</f>
+        <v>150166.15999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="24">
+        <f>SUMIFS(Dataset!F:F,Dataset!$B:$B,$A22)</f>
+        <v>62767.849999999977</v>
+      </c>
+      <c r="C22" s="24">
+        <f>SUMIFS(Dataset!G:G,Dataset!$B:$B,$A22)</f>
+        <v>51997.11</v>
+      </c>
+      <c r="D22" s="24">
+        <f>SUMIFS(Dataset!H:H,Dataset!$B:$B,$A22)</f>
+        <v>63403.229999999981</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="24">
+        <f>SUMIFS(Dataset!F:F,Dataset!$B:$B,$A23)</f>
+        <v>95251.87</v>
+      </c>
+      <c r="C23" s="24">
+        <f>SUMIFS(Dataset!G:G,Dataset!$B:$B,$A23)</f>
+        <v>87796.700000000026</v>
+      </c>
+      <c r="D23" s="24">
+        <f>SUMIFS(Dataset!H:H,Dataset!$B:$B,$A23)</f>
+        <v>92482.490000000034</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="24">
+        <f>SUMIFS(Dataset!F:F,Dataset!$B:$B,$A24)</f>
+        <v>31764.840000000007</v>
+      </c>
+      <c r="C24" s="24">
+        <f>SUMIFS(Dataset!G:G,Dataset!$B:$B,$A24)</f>
+        <v>29991.27</v>
+      </c>
+      <c r="D24" s="24">
+        <f>SUMIFS(Dataset!H:H,Dataset!$B:$B,$A24)</f>
+        <v>32879.340000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="30" t="s">
         <v>74</v>
       </c>
       <c r="B25" s="31">
         <f>SUM(B18:B24)</f>
-        <v>0</v>
+        <v>3246574.5500000003</v>
       </c>
       <c r="C25" s="31">
         <f t="shared" ref="C25:D25" si="1">SUM(C18:C24)</f>
-        <v>0</v>
+        <v>2816358.59</v>
       </c>
       <c r="D25" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3186288.9800000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="27" t="s">
         <v>75</v>
       </c>
       <c r="B26" s="28">
         <f>B25-B12</f>
-        <v>-3246574.5500000003</v>
+        <v>0</v>
       </c>
       <c r="C26" s="28">
         <f t="shared" ref="C26:D26" si="2">C25-C12</f>
-        <v>-2816358.59</v>
+        <v>0</v>
       </c>
       <c r="D26" s="28">
         <f t="shared" si="2"/>
-        <v>-3186288.9800000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18">
       <c r="A28" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="86">
+      <c r="B30" s="85">
         <v>2020</v>
       </c>
-      <c r="C30" s="86">
+      <c r="C30" s="85">
         <v>2021</v>
       </c>
-      <c r="D30" s="86">
+      <c r="D30" s="85">
         <v>2022</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="32">
+        <v>1015191.8</v>
+      </c>
+      <c r="C31" s="32">
+        <v>856906.3600000001</v>
+      </c>
+      <c r="D31" s="32">
+        <v>1011803.7000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="32">
+        <v>1042842.89</v>
+      </c>
+      <c r="C32" s="32">
+        <v>936920.05999999971</v>
+      </c>
+      <c r="D32" s="32">
+        <v>1027789.0899999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="32">
+        <v>853491.35000000021</v>
+      </c>
+      <c r="C33" s="32">
+        <v>722663.12999999989</v>
+      </c>
+      <c r="D33" s="32">
+        <v>807764.97000000009</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="32">
+        <v>145263.94999999998</v>
+      </c>
+      <c r="C34" s="32">
+        <v>130083.96000000002</v>
+      </c>
+      <c r="D34" s="32">
+        <v>150166.15999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="32">
+        <v>62767.849999999977</v>
+      </c>
+      <c r="C35" s="32">
+        <v>51997.11</v>
+      </c>
+      <c r="D35" s="32">
+        <v>63403.229999999981</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="32">
+        <v>95251.87</v>
+      </c>
+      <c r="C36" s="32">
+        <v>87796.700000000026</v>
+      </c>
+      <c r="D36" s="32">
+        <v>92482.490000000034</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="32">
+        <v>31764.840000000007</v>
+      </c>
+      <c r="C37" s="32">
+        <v>29991.27</v>
+      </c>
+      <c r="D37" s="32">
+        <v>32879.340000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="30" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="31">
         <f>SUM(B31:B37)</f>
-        <v>0</v>
+        <v>3246574.5500000003</v>
       </c>
       <c r="C38" s="31">
         <f t="shared" ref="C38:D38" si="3">SUM(C31:C37)</f>
-        <v>0</v>
+        <v>2816358.59</v>
       </c>
       <c r="D38" s="31">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3186288.9800000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="27" t="s">
         <v>75</v>
       </c>
       <c r="B39" s="28">
         <f>B38-B12</f>
-        <v>-3246574.5500000003</v>
+        <v>0</v>
       </c>
       <c r="C39" s="28">
         <f t="shared" ref="C39:D39" si="4">C38-C12</f>
-        <v>-2816358.59</v>
+        <v>0</v>
       </c>
       <c r="D39" s="28">
         <f t="shared" si="4"/>
-        <v>-3186288.9800000004</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18">
       <c r="A41" s="29" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="86">
+      <c r="B43" s="85">
         <v>2020</v>
       </c>
-      <c r="C43" s="86">
+      <c r="C43" s="85">
         <v>2021</v>
       </c>
-      <c r="D43" s="86">
+      <c r="D43" s="85">
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="67"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="67">
+        <f>B5</f>
+        <v>1015191.8</v>
+      </c>
+      <c r="C44" s="67">
+        <f t="shared" ref="B44:D50" si="5">C5</f>
+        <v>856906.3600000001</v>
+      </c>
+      <c r="D44" s="67">
+        <f t="shared" si="5"/>
+        <v>1011803.7000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="67"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="67">
+        <f t="shared" si="5"/>
+        <v>1042842.89</v>
+      </c>
+      <c r="C45" s="67">
+        <f t="shared" si="5"/>
+        <v>936920.05999999971</v>
+      </c>
+      <c r="D45" s="67">
+        <f t="shared" si="5"/>
+        <v>1027789.0899999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="67"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="67">
+        <f t="shared" si="5"/>
+        <v>853491.35000000021</v>
+      </c>
+      <c r="C46" s="67">
+        <f t="shared" si="5"/>
+        <v>722663.12999999989</v>
+      </c>
+      <c r="D46" s="67">
+        <f t="shared" si="5"/>
+        <v>807764.97000000009</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="67"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="67">
+        <f t="shared" si="5"/>
+        <v>145263.94999999998</v>
+      </c>
+      <c r="C47" s="67">
+        <f t="shared" si="5"/>
+        <v>130083.96000000002</v>
+      </c>
+      <c r="D47" s="67">
+        <f t="shared" si="5"/>
+        <v>150166.15999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B48" s="67"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="67">
+        <f t="shared" si="5"/>
+        <v>62767.849999999977</v>
+      </c>
+      <c r="C48" s="67">
+        <f t="shared" si="5"/>
+        <v>51997.11</v>
+      </c>
+      <c r="D48" s="67">
+        <f t="shared" si="5"/>
+        <v>63403.229999999981</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="67"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="67">
+        <f t="shared" si="5"/>
+        <v>95251.87</v>
+      </c>
+      <c r="C49" s="67">
+        <f t="shared" si="5"/>
+        <v>87796.700000000026</v>
+      </c>
+      <c r="D49" s="67">
+        <f t="shared" si="5"/>
+        <v>92482.490000000034</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="67"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="67">
+        <f t="shared" si="5"/>
+        <v>31764.840000000007</v>
+      </c>
+      <c r="C50" s="67">
+        <f t="shared" si="5"/>
+        <v>29991.27</v>
+      </c>
+      <c r="D50" s="67">
+        <f t="shared" si="5"/>
+        <v>32879.340000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="30" t="s">
         <v>74</v>
       </c>
       <c r="B51" s="31">
         <f>SUM(B44:B50)</f>
-        <v>0</v>
+        <v>3246574.5500000003</v>
       </c>
       <c r="C51" s="31">
-        <f t="shared" ref="C51:D51" si="5">SUM(C44:C50)</f>
-        <v>0</v>
+        <f t="shared" ref="C51:D51" si="6">SUM(C44:C50)</f>
+        <v>2816358.59</v>
       </c>
       <c r="D51" s="31">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>3186288.9800000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="27" t="s">
         <v>75</v>
       </c>
       <c r="B52" s="28">
         <f>B12-B51</f>
-        <v>3246574.5500000003</v>
+        <v>0</v>
       </c>
       <c r="C52" s="28">
-        <f t="shared" ref="C52:D52" si="6">C12-C51</f>
-        <v>2816358.59</v>
+        <f t="shared" ref="C52:D52" si="7">C12-C51</f>
+        <v>0</v>
       </c>
       <c r="D52" s="28">
-        <f t="shared" si="6"/>
-        <v>3186288.9800000004</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="18">
       <c r="A54" s="29" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
         <v>213</v>
       </c>
@@ -12108,80 +12504,94 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="86">
+      <c r="B56" s="85">
         <v>2023</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="68"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="4">
+        <v>1112984.07</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="68"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="4">
+        <v>1130567.9989999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="68"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="4">
+        <v>888541.46700000018</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="68"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="4">
+        <v>165182.77599999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B61" s="68"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="4">
+        <v>69743.552999999985</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B62" s="68"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="4">
+        <v>101730.73900000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B63" s="68"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="4">
+        <v>36167.274000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="30" t="s">
         <v>74</v>
       </c>
       <c r="B64" s="31">
         <f>SUM(B57:B63)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3504917.8780000005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="27" t="s">
         <v>75</v>
       </c>
       <c r="B65" s="35">
         <f>B64/D12-1</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="21">
       <c r="A67" s="36" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="28.8">
       <c r="A69" s="34" t="s">
         <v>211</v>
       </c>
@@ -12207,88 +12617,269 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="88">
+    <row r="70" spans="1:8">
+      <c r="A70" s="87">
         <v>2020</v>
       </c>
-      <c r="B70" s="24">
+      <c r="B70" s="32">
         <v>1015191.8</v>
       </c>
-      <c r="C70" s="24">
+      <c r="C70" s="32">
         <v>1042842.89</v>
       </c>
-      <c r="D70" s="24">
+      <c r="D70" s="32">
         <v>853491.35000000021</v>
       </c>
-      <c r="E70" s="24">
+      <c r="E70" s="32">
         <v>145263.94999999998</v>
       </c>
-      <c r="F70" s="24">
+      <c r="F70" s="32">
         <v>62767.849999999977</v>
       </c>
-      <c r="G70" s="24">
+      <c r="G70" s="32">
         <v>95251.87</v>
       </c>
-      <c r="H70" s="24">
+      <c r="H70" s="32">
         <v>31764.840000000007</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="88">
+    <row r="71" spans="1:8">
+      <c r="A71" s="87">
         <v>2021</v>
       </c>
-      <c r="B71" s="24">
+      <c r="B71" s="32">
         <v>856906.3600000001</v>
       </c>
-      <c r="C71" s="24">
+      <c r="C71" s="32">
         <v>936920.05999999971</v>
       </c>
-      <c r="D71" s="24">
+      <c r="D71" s="32">
         <v>722663.12999999989</v>
       </c>
-      <c r="E71" s="24">
+      <c r="E71" s="32">
         <v>130083.96000000002</v>
       </c>
-      <c r="F71" s="24">
+      <c r="F71" s="32">
         <v>51997.11</v>
       </c>
-      <c r="G71" s="24">
+      <c r="G71" s="32">
         <v>87796.700000000026</v>
       </c>
-      <c r="H71" s="24">
+      <c r="H71" s="32">
         <v>29991.27</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="88">
+    <row r="72" spans="1:8">
+      <c r="A72" s="87">
         <v>2022</v>
       </c>
-      <c r="B72" s="24">
+      <c r="B72" s="32">
         <v>1011803.7000000001</v>
       </c>
-      <c r="C72" s="24">
+      <c r="C72" s="32">
         <v>1027789.0899999999</v>
       </c>
-      <c r="D72" s="24">
+      <c r="D72" s="32">
         <v>807764.97000000009</v>
       </c>
-      <c r="E72" s="24">
+      <c r="E72" s="32">
         <v>150166.15999999997</v>
       </c>
-      <c r="F72" s="24">
+      <c r="F72" s="32">
         <v>63403.229999999981</v>
       </c>
-      <c r="G72" s="24">
+      <c r="G72" s="32">
         <v>92482.490000000034</v>
       </c>
-      <c r="H72" s="24">
+      <c r="H72" s="32">
         <v>32879.340000000004</v>
       </c>
     </row>
+    <row r="74" spans="1:8" ht="21">
+      <c r="A74" s="36" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="B76" s="37">
+        <v>1</v>
+      </c>
+      <c r="C76" s="37">
+        <v>2</v>
+      </c>
+      <c r="D76" s="37">
+        <v>3</v>
+      </c>
+      <c r="E76" s="37">
+        <v>4</v>
+      </c>
+      <c r="F76" s="37">
+        <v>5</v>
+      </c>
+      <c r="G76" s="37">
+        <v>6</v>
+      </c>
+      <c r="H76" s="37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="19.8" customHeight="1">
+      <c r="A77" s="87">
+        <v>2020</v>
+      </c>
+      <c r="B77" s="32">
+        <v>1015191.8</v>
+      </c>
+      <c r="C77" s="32">
+        <v>1042842.89</v>
+      </c>
+      <c r="D77" s="32">
+        <v>853491.35000000021</v>
+      </c>
+      <c r="E77" s="32">
+        <v>145263.94999999998</v>
+      </c>
+      <c r="F77" s="32">
+        <v>62767.849999999977</v>
+      </c>
+      <c r="G77" s="32">
+        <v>95251.87</v>
+      </c>
+      <c r="H77" s="32">
+        <v>31764.840000000007</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="19.8" customHeight="1">
+      <c r="A78" s="87">
+        <v>2021</v>
+      </c>
+      <c r="B78" s="32">
+        <v>856906.3600000001</v>
+      </c>
+      <c r="C78" s="32">
+        <v>936920.05999999971</v>
+      </c>
+      <c r="D78" s="32">
+        <v>722663.12999999989</v>
+      </c>
+      <c r="E78" s="32">
+        <v>130083.96000000002</v>
+      </c>
+      <c r="F78" s="32">
+        <v>51997.11</v>
+      </c>
+      <c r="G78" s="32">
+        <v>87796.700000000026</v>
+      </c>
+      <c r="H78" s="32">
+        <v>299912.27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="19.8" customHeight="1">
+      <c r="A79" s="87">
+        <v>2022</v>
+      </c>
+      <c r="B79" s="32">
+        <v>1011803.7000000001</v>
+      </c>
+      <c r="C79" s="32">
+        <v>1027789.0899999999</v>
+      </c>
+      <c r="D79" s="32">
+        <v>807764.97000000009</v>
+      </c>
+      <c r="E79" s="32">
+        <v>1560166.16</v>
+      </c>
+      <c r="F79" s="32">
+        <v>63403.229999999981</v>
+      </c>
+      <c r="G79" s="32">
+        <v>92482.490000000034</v>
+      </c>
+      <c r="H79" s="32">
+        <v>32879.340000000004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="37.200000000000003" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" minAxisType="group" maxAxisType="group" xr2:uid="{BB83A95B-57C4-4807-8906-A71404A68629}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Paste Special'!B77:B79</xm:f>
+              <xm:sqref>B80</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Paste Special'!C77:C79</xm:f>
+              <xm:sqref>C80</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Paste Special'!D77:D79</xm:f>
+              <xm:sqref>D80</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Paste Special'!E77:E79</xm:f>
+              <xm:sqref>E80</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Paste Special'!F77:F79</xm:f>
+              <xm:sqref>F80</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Paste Special'!G77:G79</xm:f>
+              <xm:sqref>G80</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Paste Special'!H77:H79</xm:f>
+              <xm:sqref>H80</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{D89E0EB7-3D54-4BDC-9D13-8DE01B89D4B4}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Paste Special'!B77:H77</xm:f>
+              <xm:sqref>I77</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Paste Special'!B78:H78</xm:f>
+              <xm:sqref>I78</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Paste Special'!B79:H79</xm:f>
+              <xm:sqref>I79</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -12296,17 +12887,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD5548A-3D7E-4AC9-8B3A-72688424C492}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="42" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="1" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625" style="42" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" s="17" t="s">
         <v>15</v>
       </c>
@@ -12314,193 +12907,325 @@
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="18"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
       <c r="H1" s="19"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="103" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="99" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="99" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="105" t="s">
+      <c r="E3" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="106" t="s">
+      <c r="F3" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="107" t="s">
+      <c r="G3" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="H3" s="108" t="s">
+      <c r="H3" s="103" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="91" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="95" t="s">
         <v>219</v>
       </c>
       <c r="E4" s="53">
         <v>1</v>
       </c>
-      <c r="F4" s="94" t="s">
+      <c r="F4" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="101" t="s">
+      <c r="G4" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="96">
+      <c r="H4" s="94">
         <v>44562</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
-      <c r="B5" s="92" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="89"/>
+      <c r="B5" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="96"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="90"/>
-      <c r="B6" s="92" t="s">
+      <c r="C5" s="95" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="95" t="s">
+        <v>304</v>
+      </c>
+      <c r="E5" s="53">
+        <v>2</v>
+      </c>
+      <c r="F5" s="93" t="s">
+        <v>246</v>
+      </c>
+      <c r="G5" s="97" t="s">
+        <v>315</v>
+      </c>
+      <c r="H5" s="94">
+        <v>44563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="89"/>
+      <c r="B6" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="96"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="90"/>
-      <c r="B7" s="92" t="s">
+      <c r="C6" s="95" t="s">
+        <v>294</v>
+      </c>
+      <c r="D6" s="95" t="s">
+        <v>305</v>
+      </c>
+      <c r="E6" s="53">
+        <v>3</v>
+      </c>
+      <c r="F6" s="93" t="s">
+        <v>247</v>
+      </c>
+      <c r="G6" s="97" t="s">
+        <v>316</v>
+      </c>
+      <c r="H6" s="94">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="89"/>
+      <c r="B7" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="96"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="90"/>
-      <c r="B8" s="92" t="s">
+      <c r="C7" s="95" t="s">
+        <v>295</v>
+      </c>
+      <c r="D7" s="95" t="s">
+        <v>306</v>
+      </c>
+      <c r="E7" s="53">
+        <v>4</v>
+      </c>
+      <c r="F7" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="G7" s="97" t="s">
+        <v>317</v>
+      </c>
+      <c r="H7" s="94">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="89"/>
+      <c r="B8" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="96"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
-      <c r="B9" s="92" t="s">
+      <c r="C8" s="95" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" s="95" t="s">
+        <v>307</v>
+      </c>
+      <c r="E8" s="53">
+        <v>5</v>
+      </c>
+      <c r="F8" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="G8" s="97" t="s">
+        <v>318</v>
+      </c>
+      <c r="H8" s="94">
+        <v>44566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="89"/>
+      <c r="B9" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="96"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="90"/>
-      <c r="B10" s="92" t="s">
+      <c r="C9" s="95" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" s="95" t="s">
+        <v>308</v>
+      </c>
+      <c r="E9" s="53">
+        <v>6</v>
+      </c>
+      <c r="F9" s="93" t="s">
+        <v>250</v>
+      </c>
+      <c r="G9" s="97" t="s">
+        <v>319</v>
+      </c>
+      <c r="H9" s="94">
+        <v>44567</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="89"/>
+      <c r="B10" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="96"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="90"/>
-      <c r="B11" s="92" t="s">
+      <c r="C10" s="95" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="95" t="s">
+        <v>309</v>
+      </c>
+      <c r="E10" s="53">
+        <v>7</v>
+      </c>
+      <c r="F10" s="93" t="s">
+        <v>251</v>
+      </c>
+      <c r="G10" s="97" t="s">
+        <v>320</v>
+      </c>
+      <c r="H10" s="94">
+        <v>44568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="89"/>
+      <c r="B11" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="96"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="90"/>
-      <c r="B12" s="92" t="s">
+      <c r="C11" s="95" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" s="95" t="s">
+        <v>310</v>
+      </c>
+      <c r="E11" s="53">
+        <v>8</v>
+      </c>
+      <c r="F11" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="G11" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="94">
+        <v>44569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="89"/>
+      <c r="B12" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="96"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="90"/>
-      <c r="B13" s="92" t="s">
+      <c r="C12" s="95" t="s">
+        <v>300</v>
+      </c>
+      <c r="D12" s="95" t="s">
+        <v>311</v>
+      </c>
+      <c r="E12" s="53">
+        <v>9</v>
+      </c>
+      <c r="F12" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="G12" s="97" t="s">
+        <v>315</v>
+      </c>
+      <c r="H12" s="94">
+        <v>44570</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="89"/>
+      <c r="B13" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="96"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="90"/>
-      <c r="B14" s="92" t="s">
+      <c r="C13" s="95" t="s">
+        <v>301</v>
+      </c>
+      <c r="D13" s="95" t="s">
+        <v>312</v>
+      </c>
+      <c r="E13" s="53">
+        <v>10</v>
+      </c>
+      <c r="F13" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="G13" s="97" t="s">
+        <v>316</v>
+      </c>
+      <c r="H13" s="94">
+        <v>44571</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="89"/>
+      <c r="B14" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="96"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="91"/>
-      <c r="B15" s="93" t="s">
+      <c r="C14" s="95" t="s">
+        <v>302</v>
+      </c>
+      <c r="D14" s="95" t="s">
+        <v>313</v>
+      </c>
+      <c r="E14" s="53">
+        <v>11</v>
+      </c>
+      <c r="F14" s="93" t="s">
+        <v>255</v>
+      </c>
+      <c r="G14" s="97" t="s">
+        <v>317</v>
+      </c>
+      <c r="H14" s="94">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="90"/>
+      <c r="B15" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="97"/>
+      <c r="C15" s="96" t="s">
+        <v>303</v>
+      </c>
+      <c r="D15" s="96" t="s">
+        <v>314</v>
+      </c>
+      <c r="E15" s="53">
+        <v>12</v>
+      </c>
+      <c r="F15" s="93" t="s">
+        <v>256</v>
+      </c>
+      <c r="G15" s="97" t="s">
+        <v>318</v>
+      </c>
+      <c r="H15" s="94">
+        <v>44573</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -12512,15 +13237,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87BEED9-CF13-4B76-A88C-AAF7E703906D}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="124" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="3" width="20.5703125" customWidth="1"/>
+    <col min="2" max="3" width="20.5546875" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="17" t="s">
         <v>154</v>
       </c>
@@ -12528,7 +13255,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
@@ -12542,7 +13269,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="42">
         <v>1</v>
       </c>
@@ -12550,7 +13277,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="42">
         <v>2</v>
       </c>
@@ -12558,7 +13285,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="42">
         <v>3</v>
       </c>
@@ -12566,7 +13293,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="42">
         <v>4</v>
       </c>
@@ -12574,7 +13301,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="42">
         <v>5</v>
       </c>
@@ -12582,7 +13309,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="42">
         <v>6</v>
       </c>
@@ -12590,7 +13317,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="42">
         <v>7</v>
       </c>
@@ -12598,7 +13325,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="42">
         <v>8</v>
       </c>
@@ -12606,7 +13333,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="42">
         <v>9</v>
       </c>
@@ -12614,7 +13341,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="42">
         <v>10</v>
       </c>
@@ -12622,7 +13349,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="42">
         <v>11</v>
       </c>
@@ -12630,7 +13357,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="42">
         <v>12</v>
       </c>
@@ -12638,7 +13365,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="42">
         <v>13</v>
       </c>
@@ -12646,7 +13373,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="42">
         <v>14</v>
       </c>
@@ -12654,7 +13381,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="42">
         <v>15</v>
       </c>
@@ -12662,7 +13389,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="42">
         <v>16</v>
       </c>
@@ -12670,7 +13397,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="42">
         <v>17</v>
       </c>
@@ -12678,7 +13405,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="42">
         <v>18</v>
       </c>
@@ -12686,7 +13413,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="42">
         <v>19</v>
       </c>
@@ -12694,7 +13421,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="42">
         <v>20</v>
       </c>
@@ -12702,7 +13429,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="42">
         <v>21</v>
       </c>
@@ -12710,7 +13437,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="42">
         <v>22</v>
       </c>
@@ -12718,7 +13445,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="42">
         <v>23</v>
       </c>
@@ -12726,7 +13453,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="42">
         <v>24</v>
       </c>
@@ -12734,7 +13461,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="42">
         <v>25</v>
       </c>
@@ -12742,7 +13469,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="42">
         <v>26</v>
       </c>
@@ -12750,7 +13477,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="42">
         <v>27</v>
       </c>
@@ -12758,7 +13485,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="42">
         <v>28</v>
       </c>
@@ -12766,7 +13493,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="42">
         <v>29</v>
       </c>
@@ -12774,7 +13501,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="42">
         <v>30</v>
       </c>
@@ -12782,7 +13509,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="42">
         <v>31</v>
       </c>
@@ -12799,15 +13526,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E4F565-DDA1-4610-90CA-A200B8D930D9}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="3" width="50.28515625" customWidth="1"/>
+    <col min="2" max="3" width="50.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="21">
       <c r="A1" s="17" t="s">
         <v>244</v>
       </c>
@@ -12816,7 +13545,7 @@
       </c>
       <c r="C1" s="19"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="41" t="s">
         <v>157</v>
       </c>
@@ -12827,14 +13556,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="44" t="s">
         <v>159</v>
       </c>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="45" t="s">
         <v>160</v>
       </c>
@@ -12845,168 +13574,168 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="23.4">
       <c r="A6" t="s">
         <v>161</v>
       </c>
       <c r="B6" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="125" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>162</v>
       </c>
       <c r="B7" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="38" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>164</v>
       </c>
       <c r="B8" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="48" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>166</v>
       </c>
       <c r="B9" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="49" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>168</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="50" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>169</v>
       </c>
       <c r="B11" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="51" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>170</v>
       </c>
       <c r="B12" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="126" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>171</v>
       </c>
       <c r="B13" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="53" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>172</v>
       </c>
       <c r="B14" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="54" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="44" t="s">
         <v>173</v>
       </c>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>174</v>
       </c>
       <c r="B17" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="55" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>175</v>
       </c>
       <c r="B18" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="42" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>176</v>
       </c>
       <c r="B19" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="56" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="28.5" customHeight="1">
       <c r="A20" t="s">
         <v>177</v>
       </c>
       <c r="B20" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="57" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="28.5" customHeight="1">
       <c r="A21" t="s">
         <v>178</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="28.5" customHeight="1">
       <c r="A22" t="s">
         <v>179</v>
       </c>
@@ -13017,29 +13746,29 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="48.6">
       <c r="A23" t="s">
         <v>180</v>
       </c>
       <c r="B23" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="58" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>181</v>
       </c>
       <c r="B24" t="s">
         <v>181</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="124" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="B25" s="59" t="s">
         <v>182</v>
       </c>
@@ -13047,84 +13776,86 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="B26" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="124" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="B27" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="124" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="B28" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="124" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="44" t="s">
         <v>186</v>
       </c>
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
     </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="28.8">
       <c r="A31" t="s">
         <v>187</v>
       </c>
       <c r="B31" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="61" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>189</v>
       </c>
       <c r="B32" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="62" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>191</v>
       </c>
       <c r="B33" s="129" t="s">
         <v>192</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="130" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="B34" s="129"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="130"/>
+    </row>
+    <row r="35" spans="1:3">
       <c r="B35" s="129"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="130"/>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="44" t="s">
         <v>85</v>
       </c>
       <c r="B36" s="44"/>
       <c r="C36" s="44"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>193</v>
       </c>
@@ -13132,34 +13863,34 @@
         <f>2999/56</f>
         <v>53.553571428571431</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="127">
         <f>2999/56</f>
         <v>53.553571428571431</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>194</v>
       </c>
       <c r="B38" s="64">
         <v>0.1</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="64">
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>195</v>
       </c>
       <c r="B39" s="65">
         <v>2999</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="128">
         <v>2999</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>196</v>
       </c>
@@ -13167,76 +13898,77 @@
         <f>2999/56</f>
         <v>53.553571428571431</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="66">
         <f>2999/56</f>
         <v>53.553571428571431</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="44" t="s">
         <v>208</v>
       </c>
       <c r="B43" s="44"/>
       <c r="C43" s="44"/>
     </row>
-    <row r="44" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" ht="20.399999999999999" thickBot="1">
       <c r="A44" t="s">
         <v>206</v>
       </c>
-      <c r="B44" s="79" t="s">
+      <c r="B44" s="78" t="s">
         <v>206</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="78" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15" thickTop="1">
       <c r="A45" t="s">
         <v>203</v>
       </c>
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="79" t="s">
         <v>203</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="79" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>204</v>
       </c>
-      <c r="B46" s="81" t="s">
+      <c r="B46" s="80" t="s">
         <v>204</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="80" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>205</v>
       </c>
-      <c r="B47" s="82" t="s">
+      <c r="B47" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="81" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>207</v>
       </c>
-      <c r="B48" s="83" t="s">
+      <c r="B48" s="82" t="s">
         <v>207</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="82" t="s">
         <v>207</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13247,16 +13979,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A17ABD-1B53-42BB-BA7E-8C0D9837B156}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1">
+      <c r="A1" s="55" t="s">
         <v>221</v>
       </c>
       <c r="B1"/>
@@ -13267,32 +14001,32 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="55" t="s">
         <v>222</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>223</v>
       </c>
-      <c r="B4">
-        <v>2020</v>
-      </c>
-      <c r="C4">
-        <v>2021</v>
-      </c>
-      <c r="D4">
-        <v>2022</v>
-      </c>
-      <c r="E4">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>224</v>
       </c>
@@ -13312,7 +14046,7 @@
         <v>66550.000000000015</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>225</v>
       </c>
@@ -13332,7 +14066,7 @@
         <v>53240.000000000015</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>226</v>
       </c>
@@ -13352,7 +14086,7 @@
         <v>33275.000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>227</v>
       </c>
@@ -13372,7 +14106,7 @@
         <v>19965</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>228</v>
       </c>
@@ -13392,7 +14126,7 @@
         <v>93170.000000000015</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -13416,357 +14150,448 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE07C66B-4073-4787-ACC6-3FFFE3E667AC}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31:I32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="21">
       <c r="A1" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="69" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="72">
+    <row r="5" spans="1:11">
+      <c r="A5" s="71">
         <f ca="1">TODAY()-60</f>
-        <v>44873</v>
-      </c>
-      <c r="B5" s="73" t="s">
+        <v>45450</v>
+      </c>
+      <c r="B5" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="74">
+      <c r="D5" s="73">
         <v>1200</v>
       </c>
-      <c r="E5" s="74">
+      <c r="E5" s="73">
         <v>1000</v>
       </c>
-      <c r="F5" s="77">
+      <c r="F5" s="76">
         <f t="shared" ref="F5:F11" si="0">D5/E5</f>
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="72">
+    <row r="6" spans="1:11">
+      <c r="A6" s="71">
         <f t="shared" ref="A6:A10" ca="1" si="1">TODAY()-60</f>
-        <v>44873</v>
-      </c>
-      <c r="B6" s="73" t="s">
+        <v>45450</v>
+      </c>
+      <c r="B6" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="74">
+      <c r="D6" s="73">
         <v>1020</v>
       </c>
-      <c r="E6" s="74">
+      <c r="E6" s="73">
         <v>1000</v>
       </c>
-      <c r="F6" s="77">
+      <c r="F6" s="76">
         <f t="shared" si="0"/>
         <v>1.02</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="72">
+      <c r="J6" t="s">
+        <v>326</v>
+      </c>
+      <c r="K6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="71">
         <f t="shared" ca="1" si="1"/>
-        <v>44873</v>
-      </c>
-      <c r="B7" s="73" t="s">
+        <v>45450</v>
+      </c>
+      <c r="B7" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="74">
+      <c r="D7" s="73">
         <v>850</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="73">
         <v>1000</v>
       </c>
-      <c r="F7" s="77">
+      <c r="F7" s="76">
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="72">
+      <c r="J7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="71">
         <f t="shared" ca="1" si="1"/>
-        <v>44873</v>
-      </c>
-      <c r="B8" s="73" t="s">
+        <v>45450</v>
+      </c>
+      <c r="B8" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="74">
+      <c r="D8" s="73">
         <v>950</v>
       </c>
-      <c r="E8" s="74">
+      <c r="E8" s="73">
         <v>1000</v>
       </c>
-      <c r="F8" s="77">
+      <c r="F8" s="76">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="72">
+      <c r="J8" t="s">
+        <v>328</v>
+      </c>
+      <c r="K8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="71">
         <f t="shared" ca="1" si="1"/>
-        <v>44873</v>
-      </c>
-      <c r="B9" s="73" t="s">
+        <v>45450</v>
+      </c>
+      <c r="B9" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="73">
         <v>1300</v>
       </c>
-      <c r="E9" s="74">
+      <c r="E9" s="73">
         <v>1000</v>
       </c>
-      <c r="F9" s="77">
+      <c r="F9" s="76">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="72">
+      <c r="J9" t="s">
+        <v>329</v>
+      </c>
+      <c r="K9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="71">
         <f t="shared" ca="1" si="1"/>
-        <v>44873</v>
-      </c>
-      <c r="B10" s="73" t="s">
+        <v>45450</v>
+      </c>
+      <c r="B10" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="74">
+      <c r="D10" s="73">
         <v>900</v>
       </c>
-      <c r="E10" s="74">
+      <c r="E10" s="73">
         <v>1000</v>
       </c>
-      <c r="F10" s="77">
+      <c r="F10" s="76">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="75" t="s">
+      <c r="J10" t="s">
+        <v>330</v>
+      </c>
+      <c r="K10">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="C11" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="75">
         <f>SUM(D5:D10)</f>
         <v>6220</v>
       </c>
-      <c r="E11" s="76">
+      <c r="E11" s="75">
         <f t="shared" ref="E11" si="2">SUM(E5:E10)</f>
         <v>6000</v>
       </c>
-      <c r="F11" s="78">
+      <c r="F11" s="77">
         <f t="shared" si="0"/>
         <v>1.0366666666666666</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>331</v>
+      </c>
+      <c r="K11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="J12" t="s">
+        <v>332</v>
+      </c>
+      <c r="K12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="J13" t="s">
+        <v>333</v>
+      </c>
+      <c r="K13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="J14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K14">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="J15" t="s">
+        <v>335</v>
+      </c>
+      <c r="K15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="111" t="s">
+      <c r="J16" t="s">
+        <v>336</v>
+      </c>
+      <c r="K16">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="113" t="s">
+      <c r="D17" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="113" t="s">
+      <c r="E17" s="108" t="s">
         <v>200</v>
       </c>
-      <c r="F17" s="114" t="s">
+      <c r="F17" s="109" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="109">
+      <c r="J17" t="s">
+        <v>337</v>
+      </c>
+      <c r="K17">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="104">
         <f ca="1">TODAY()-60</f>
-        <v>44873</v>
-      </c>
-      <c r="B18" s="73" t="s">
+        <v>45450</v>
+      </c>
+      <c r="B18" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="74">
+      <c r="D18" s="73">
         <v>1400</v>
       </c>
-      <c r="E18" s="74">
+      <c r="E18" s="73">
         <v>1000</v>
       </c>
-      <c r="F18" s="110">
+      <c r="F18" s="105">
         <v>1400</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="109">
+      <c r="J18" t="s">
+        <v>338</v>
+      </c>
+      <c r="K18">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="104">
         <f t="shared" ref="A19:A23" ca="1" si="3">TODAY()-60</f>
-        <v>44873</v>
-      </c>
-      <c r="B19" s="73" t="s">
+        <v>45450</v>
+      </c>
+      <c r="B19" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="74">
+      <c r="D19" s="73">
         <v>1010</v>
       </c>
-      <c r="E19" s="74">
+      <c r="E19" s="73">
         <v>1000</v>
       </c>
-      <c r="F19" s="110">
+      <c r="F19" s="105">
         <v>1010</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="109">
+    <row r="20" spans="1:11">
+      <c r="A20" s="104">
         <f t="shared" ca="1" si="3"/>
-        <v>44873</v>
-      </c>
-      <c r="B20" s="73" t="s">
+        <v>45450</v>
+      </c>
+      <c r="B20" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="74">
+      <c r="D20" s="73">
         <v>750</v>
       </c>
-      <c r="E20" s="74">
+      <c r="E20" s="73">
         <v>1000</v>
       </c>
-      <c r="F20" s="110">
+      <c r="F20" s="105">
         <v>750</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="109">
+    <row r="21" spans="1:11">
+      <c r="A21" s="104">
         <f t="shared" ca="1" si="3"/>
-        <v>44873</v>
-      </c>
-      <c r="B21" s="73" t="s">
+        <v>45450</v>
+      </c>
+      <c r="B21" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="74">
+      <c r="D21" s="73">
         <v>510</v>
       </c>
-      <c r="E21" s="74">
+      <c r="E21" s="73">
         <v>1000</v>
       </c>
-      <c r="F21" s="110">
+      <c r="F21" s="105">
         <v>510</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="109">
+    <row r="22" spans="1:11">
+      <c r="A22" s="104">
         <f t="shared" ca="1" si="3"/>
-        <v>44873</v>
-      </c>
-      <c r="B22" s="73" t="s">
+        <v>45450</v>
+      </c>
+      <c r="B22" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="74">
+      <c r="D22" s="73">
         <v>1600</v>
       </c>
-      <c r="E22" s="74">
+      <c r="E22" s="73">
         <v>1000</v>
       </c>
-      <c r="F22" s="110">
+      <c r="F22" s="105">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="115">
+    <row r="23" spans="1:11">
+      <c r="A23" s="110">
         <f t="shared" ca="1" si="3"/>
-        <v>44873</v>
-      </c>
-      <c r="B23" s="116" t="s">
+        <v>45450</v>
+      </c>
+      <c r="B23" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="116" t="s">
+      <c r="C23" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="117">
+      <c r="D23" s="112">
         <v>680</v>
       </c>
-      <c r="E23" s="117">
+      <c r="E23" s="112">
         <v>1000</v>
       </c>
-      <c r="F23" s="118">
+      <c r="F23" s="113">
         <v>680</v>
       </c>
     </row>
@@ -13783,975 +14608,975 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEE9AAB-B56E-44EC-ACD5-1A90B06A4DAA}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="14" width="8.7109375" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="21">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="17"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="121" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="116" t="s">
         <v>292</v>
       </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="123" t="s">
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="118" t="s">
         <v>245</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="118" t="s">
         <v>291</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="124" t="s">
+      <c r="D5" s="119" t="s">
         <v>246</v>
       </c>
-      <c r="E5" s="124" t="s">
+      <c r="E5" s="119" t="s">
         <v>247</v>
       </c>
-      <c r="F5" s="124" t="s">
+      <c r="F5" s="119" t="s">
         <v>248</v>
       </c>
-      <c r="G5" s="124" t="s">
+      <c r="G5" s="119" t="s">
         <v>249</v>
       </c>
-      <c r="H5" s="124" t="s">
+      <c r="H5" s="119" t="s">
         <v>250</v>
       </c>
-      <c r="I5" s="124" t="s">
+      <c r="I5" s="119" t="s">
         <v>251</v>
       </c>
-      <c r="J5" s="124" t="s">
+      <c r="J5" s="119" t="s">
         <v>252</v>
       </c>
-      <c r="K5" s="124" t="s">
+      <c r="K5" s="119" t="s">
         <v>253</v>
       </c>
-      <c r="L5" s="124" t="s">
+      <c r="L5" s="119" t="s">
         <v>254</v>
       </c>
-      <c r="M5" s="124" t="s">
+      <c r="M5" s="119" t="s">
         <v>255</v>
       </c>
-      <c r="N5" s="124" t="s">
+      <c r="N5" s="119" t="s">
         <v>256</v>
       </c>
-      <c r="O5" s="124" t="s">
+      <c r="O5" s="119" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+    <row r="6" spans="1:15">
+      <c r="A6" s="72" t="s">
         <v>257</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="C6" s="119">
+      <c r="C6" s="114">
         <v>741</v>
       </c>
-      <c r="D6" s="119">
+      <c r="D6" s="114">
         <v>570</v>
       </c>
-      <c r="E6" s="119">
+      <c r="E6" s="114">
         <v>889</v>
       </c>
-      <c r="F6" s="119">
+      <c r="F6" s="114">
         <v>1000</v>
       </c>
-      <c r="G6" s="119">
+      <c r="G6" s="114">
         <v>864</v>
       </c>
-      <c r="H6" s="119">
+      <c r="H6" s="114">
         <v>624</v>
       </c>
-      <c r="I6" s="119">
+      <c r="I6" s="114">
         <v>748</v>
       </c>
-      <c r="J6" s="119">
+      <c r="J6" s="114">
         <v>760</v>
       </c>
-      <c r="K6" s="119">
+      <c r="K6" s="114">
         <v>997</v>
       </c>
-      <c r="L6" s="119">
+      <c r="L6" s="114">
         <v>667</v>
       </c>
-      <c r="M6" s="119">
+      <c r="M6" s="114">
         <v>854</v>
       </c>
-      <c r="N6" s="119">
+      <c r="N6" s="114">
         <v>942</v>
       </c>
-      <c r="O6" s="120">
+      <c r="O6" s="115">
         <f>SUM(C6:N6)</f>
         <v>9656</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
+    <row r="7" spans="1:15">
+      <c r="A7" s="72" t="s">
         <v>259</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="72" t="s">
         <v>260</v>
       </c>
-      <c r="C7" s="119">
+      <c r="C7" s="114">
         <v>876</v>
       </c>
-      <c r="D7" s="119">
+      <c r="D7" s="114">
         <v>630</v>
       </c>
-      <c r="E7" s="119">
+      <c r="E7" s="114">
         <v>828</v>
       </c>
-      <c r="F7" s="119">
+      <c r="F7" s="114">
         <v>661</v>
       </c>
-      <c r="G7" s="119">
+      <c r="G7" s="114">
         <v>825</v>
       </c>
-      <c r="H7" s="119">
+      <c r="H7" s="114">
         <v>784</v>
       </c>
-      <c r="I7" s="119">
+      <c r="I7" s="114">
         <v>926</v>
       </c>
-      <c r="J7" s="119">
+      <c r="J7" s="114">
         <v>540</v>
       </c>
-      <c r="K7" s="119">
+      <c r="K7" s="114">
         <v>691</v>
       </c>
-      <c r="L7" s="119">
+      <c r="L7" s="114">
         <v>820</v>
       </c>
-      <c r="M7" s="119">
+      <c r="M7" s="114">
         <v>912</v>
       </c>
-      <c r="N7" s="119">
+      <c r="N7" s="114">
         <v>658</v>
       </c>
-      <c r="O7" s="120">
+      <c r="O7" s="115">
         <f t="shared" ref="O7:O22" si="0">SUM(C7:N7)</f>
         <v>9151</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="73" t="s">
+    <row r="8" spans="1:15">
+      <c r="A8" s="72" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="72" t="s">
         <v>262</v>
       </c>
-      <c r="C8" s="119">
+      <c r="C8" s="114">
         <v>617</v>
       </c>
-      <c r="D8" s="119">
+      <c r="D8" s="114">
         <v>1015</v>
       </c>
-      <c r="E8" s="119">
+      <c r="E8" s="114">
         <v>1246</v>
       </c>
-      <c r="F8" s="119">
+      <c r="F8" s="114">
         <v>1491</v>
       </c>
-      <c r="G8" s="119">
+      <c r="G8" s="114">
         <v>775</v>
       </c>
-      <c r="H8" s="119">
+      <c r="H8" s="114">
         <v>803</v>
       </c>
-      <c r="I8" s="119">
+      <c r="I8" s="114">
         <v>1050</v>
       </c>
-      <c r="J8" s="119">
+      <c r="J8" s="114">
         <v>625</v>
       </c>
-      <c r="K8" s="119">
+      <c r="K8" s="114">
         <v>1463</v>
       </c>
-      <c r="L8" s="119">
+      <c r="L8" s="114">
         <v>856</v>
       </c>
-      <c r="M8" s="119">
+      <c r="M8" s="114">
         <v>829</v>
       </c>
-      <c r="N8" s="119">
+      <c r="N8" s="114">
         <v>1433</v>
       </c>
-      <c r="O8" s="120">
+      <c r="O8" s="115">
         <f t="shared" si="0"/>
         <v>12203</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="73" t="s">
+    <row r="9" spans="1:15">
+      <c r="A9" s="72" t="s">
         <v>263</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="72" t="s">
         <v>264</v>
       </c>
-      <c r="C9" s="119">
+      <c r="C9" s="114">
         <v>630</v>
       </c>
-      <c r="D9" s="119">
+      <c r="D9" s="114">
         <v>599</v>
       </c>
-      <c r="E9" s="119">
+      <c r="E9" s="114">
         <v>793</v>
       </c>
-      <c r="F9" s="119">
+      <c r="F9" s="114">
         <v>903</v>
       </c>
-      <c r="G9" s="119">
+      <c r="G9" s="114">
         <v>748</v>
       </c>
-      <c r="H9" s="119">
+      <c r="H9" s="114">
         <v>641</v>
       </c>
-      <c r="I9" s="119">
+      <c r="I9" s="114">
         <v>859</v>
       </c>
-      <c r="J9" s="119">
+      <c r="J9" s="114">
         <v>505</v>
       </c>
-      <c r="K9" s="119">
+      <c r="K9" s="114">
         <v>701</v>
       </c>
-      <c r="L9" s="119">
+      <c r="L9" s="114">
         <v>685</v>
       </c>
-      <c r="M9" s="119">
+      <c r="M9" s="114">
         <v>551</v>
       </c>
-      <c r="N9" s="119">
+      <c r="N9" s="114">
         <v>779</v>
       </c>
-      <c r="O9" s="120">
+      <c r="O9" s="115">
         <f t="shared" si="0"/>
         <v>8394</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="s">
+    <row r="10" spans="1:15">
+      <c r="A10" s="72" t="s">
         <v>265</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="72" t="s">
         <v>266</v>
       </c>
-      <c r="C10" s="119">
+      <c r="C10" s="114">
         <v>580</v>
       </c>
-      <c r="D10" s="119">
+      <c r="D10" s="114">
         <v>604</v>
       </c>
-      <c r="E10" s="119">
+      <c r="E10" s="114">
         <v>588</v>
       </c>
-      <c r="F10" s="119">
+      <c r="F10" s="114">
         <v>638</v>
       </c>
-      <c r="G10" s="119">
+      <c r="G10" s="114">
         <v>984</v>
       </c>
-      <c r="H10" s="119">
+      <c r="H10" s="114">
         <v>764</v>
       </c>
-      <c r="I10" s="119">
+      <c r="I10" s="114">
         <v>929</v>
       </c>
-      <c r="J10" s="119">
+      <c r="J10" s="114">
         <v>681</v>
       </c>
-      <c r="K10" s="119">
+      <c r="K10" s="114">
         <v>541</v>
       </c>
-      <c r="L10" s="119">
+      <c r="L10" s="114">
         <v>649</v>
       </c>
-      <c r="M10" s="119">
+      <c r="M10" s="114">
         <v>507</v>
       </c>
-      <c r="N10" s="119">
+      <c r="N10" s="114">
         <v>660</v>
       </c>
-      <c r="O10" s="120">
+      <c r="O10" s="115">
         <f t="shared" si="0"/>
         <v>8125</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="73" t="s">
+    <row r="11" spans="1:15">
+      <c r="A11" s="72" t="s">
         <v>267</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="C11" s="119">
+      <c r="C11" s="114">
         <v>663</v>
       </c>
-      <c r="D11" s="119">
+      <c r="D11" s="114">
         <v>629</v>
       </c>
-      <c r="E11" s="119">
+      <c r="E11" s="114">
         <v>848</v>
       </c>
-      <c r="F11" s="119">
+      <c r="F11" s="114">
         <v>915</v>
       </c>
-      <c r="G11" s="119">
+      <c r="G11" s="114">
         <v>801</v>
       </c>
-      <c r="H11" s="119">
+      <c r="H11" s="114">
         <v>591</v>
       </c>
-      <c r="I11" s="119">
+      <c r="I11" s="114">
         <v>922</v>
       </c>
-      <c r="J11" s="119">
+      <c r="J11" s="114">
         <v>803</v>
       </c>
-      <c r="K11" s="119">
+      <c r="K11" s="114">
         <v>840</v>
       </c>
-      <c r="L11" s="119">
+      <c r="L11" s="114">
         <v>633</v>
       </c>
-      <c r="M11" s="119">
+      <c r="M11" s="114">
         <v>624</v>
       </c>
-      <c r="N11" s="119">
+      <c r="N11" s="114">
         <v>729</v>
       </c>
-      <c r="O11" s="120">
+      <c r="O11" s="115">
         <f t="shared" si="0"/>
         <v>8998</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="s">
+    <row r="12" spans="1:15">
+      <c r="A12" s="72" t="s">
         <v>269</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="72" t="s">
         <v>270</v>
       </c>
-      <c r="C12" s="119">
+      <c r="C12" s="114">
         <v>860</v>
       </c>
-      <c r="D12" s="119">
+      <c r="D12" s="114">
         <v>506</v>
       </c>
-      <c r="E12" s="119">
+      <c r="E12" s="114">
         <v>709</v>
       </c>
-      <c r="F12" s="119">
+      <c r="F12" s="114">
         <v>802</v>
       </c>
-      <c r="G12" s="119">
+      <c r="G12" s="114">
         <v>925</v>
       </c>
-      <c r="H12" s="119">
+      <c r="H12" s="114">
         <v>709</v>
       </c>
-      <c r="I12" s="119">
+      <c r="I12" s="114">
         <v>530</v>
       </c>
-      <c r="J12" s="119">
+      <c r="J12" s="114">
         <v>778</v>
       </c>
-      <c r="K12" s="119">
+      <c r="K12" s="114">
         <v>756</v>
       </c>
-      <c r="L12" s="119">
+      <c r="L12" s="114">
         <v>844</v>
       </c>
-      <c r="M12" s="119">
+      <c r="M12" s="114">
         <v>825</v>
       </c>
-      <c r="N12" s="119">
+      <c r="N12" s="114">
         <v>523</v>
       </c>
-      <c r="O12" s="120">
+      <c r="O12" s="115">
         <f t="shared" si="0"/>
         <v>8767</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="73" t="s">
+    <row r="13" spans="1:15">
+      <c r="A13" s="72" t="s">
         <v>271</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="72" t="s">
         <v>272</v>
       </c>
-      <c r="C13" s="119">
+      <c r="C13" s="114">
         <v>749</v>
       </c>
-      <c r="D13" s="119">
+      <c r="D13" s="114">
         <v>672</v>
       </c>
-      <c r="E13" s="119">
+      <c r="E13" s="114">
         <v>552</v>
       </c>
-      <c r="F13" s="119">
+      <c r="F13" s="114">
         <v>791</v>
       </c>
-      <c r="G13" s="119">
+      <c r="G13" s="114">
         <v>952</v>
       </c>
-      <c r="H13" s="119">
+      <c r="H13" s="114">
         <v>717</v>
       </c>
-      <c r="I13" s="119">
+      <c r="I13" s="114">
         <v>876</v>
       </c>
-      <c r="J13" s="119">
+      <c r="J13" s="114">
         <v>787</v>
       </c>
-      <c r="K13" s="119">
+      <c r="K13" s="114">
         <v>883</v>
       </c>
-      <c r="L13" s="119">
+      <c r="L13" s="114">
         <v>956</v>
       </c>
-      <c r="M13" s="119">
+      <c r="M13" s="114">
         <v>627</v>
       </c>
-      <c r="N13" s="119">
+      <c r="N13" s="114">
         <v>774</v>
       </c>
-      <c r="O13" s="120">
+      <c r="O13" s="115">
         <f t="shared" si="0"/>
         <v>9336</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="73" t="s">
+    <row r="14" spans="1:15">
+      <c r="A14" s="72" t="s">
         <v>273</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="72" t="s">
         <v>274</v>
       </c>
-      <c r="C14" s="119">
+      <c r="C14" s="114">
         <v>944</v>
       </c>
-      <c r="D14" s="119">
+      <c r="D14" s="114">
         <v>690</v>
       </c>
-      <c r="E14" s="119">
+      <c r="E14" s="114">
         <v>520</v>
       </c>
-      <c r="F14" s="119">
+      <c r="F14" s="114">
         <v>635</v>
       </c>
-      <c r="G14" s="119">
+      <c r="G14" s="114">
         <v>952</v>
       </c>
-      <c r="H14" s="119">
+      <c r="H14" s="114">
         <v>572</v>
       </c>
-      <c r="I14" s="119">
+      <c r="I14" s="114">
         <v>931</v>
       </c>
-      <c r="J14" s="119">
+      <c r="J14" s="114">
         <v>640</v>
       </c>
-      <c r="K14" s="119">
+      <c r="K14" s="114">
         <v>593</v>
       </c>
-      <c r="L14" s="119">
+      <c r="L14" s="114">
         <v>970</v>
       </c>
-      <c r="M14" s="119">
+      <c r="M14" s="114">
         <v>526</v>
       </c>
-      <c r="N14" s="119">
+      <c r="N14" s="114">
         <v>897</v>
       </c>
-      <c r="O14" s="120">
+      <c r="O14" s="115">
         <f t="shared" si="0"/>
         <v>8870</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="73" t="s">
+    <row r="15" spans="1:15">
+      <c r="A15" s="72" t="s">
         <v>275</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="72" t="s">
         <v>276</v>
       </c>
-      <c r="C15" s="119">
+      <c r="C15" s="114">
         <v>665</v>
       </c>
-      <c r="D15" s="119">
+      <c r="D15" s="114">
         <v>554</v>
       </c>
-      <c r="E15" s="119">
+      <c r="E15" s="114">
         <v>875</v>
       </c>
-      <c r="F15" s="119">
+      <c r="F15" s="114">
         <v>780</v>
       </c>
-      <c r="G15" s="119">
+      <c r="G15" s="114">
         <v>506</v>
       </c>
-      <c r="H15" s="119">
+      <c r="H15" s="114">
         <v>807</v>
       </c>
-      <c r="I15" s="119">
+      <c r="I15" s="114">
         <v>835</v>
       </c>
-      <c r="J15" s="119">
+      <c r="J15" s="114">
         <v>812</v>
       </c>
-      <c r="K15" s="119">
+      <c r="K15" s="114">
         <v>844</v>
       </c>
-      <c r="L15" s="119">
+      <c r="L15" s="114">
         <v>820</v>
       </c>
-      <c r="M15" s="119">
+      <c r="M15" s="114">
         <v>994</v>
       </c>
-      <c r="N15" s="119">
+      <c r="N15" s="114">
         <v>964</v>
       </c>
-      <c r="O15" s="120">
+      <c r="O15" s="115">
         <f t="shared" si="0"/>
         <v>9456</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="73" t="s">
+    <row r="16" spans="1:15">
+      <c r="A16" s="72" t="s">
         <v>277</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="72" t="s">
         <v>278</v>
       </c>
-      <c r="C16" s="119">
+      <c r="C16" s="114">
         <v>554</v>
       </c>
-      <c r="D16" s="119">
+      <c r="D16" s="114">
         <v>935</v>
       </c>
-      <c r="E16" s="119">
+      <c r="E16" s="114">
         <v>828</v>
       </c>
-      <c r="F16" s="119">
+      <c r="F16" s="114">
         <v>516</v>
       </c>
-      <c r="G16" s="119">
+      <c r="G16" s="114">
         <v>880</v>
       </c>
-      <c r="H16" s="119">
+      <c r="H16" s="114">
         <v>805</v>
       </c>
-      <c r="I16" s="119">
+      <c r="I16" s="114">
         <v>536</v>
       </c>
-      <c r="J16" s="119">
+      <c r="J16" s="114">
         <v>907</v>
       </c>
-      <c r="K16" s="119">
+      <c r="K16" s="114">
         <v>993</v>
       </c>
-      <c r="L16" s="119">
+      <c r="L16" s="114">
         <v>973</v>
       </c>
-      <c r="M16" s="119">
+      <c r="M16" s="114">
         <v>524</v>
       </c>
-      <c r="N16" s="119">
+      <c r="N16" s="114">
         <v>858</v>
       </c>
-      <c r="O16" s="120">
+      <c r="O16" s="115">
         <f t="shared" si="0"/>
         <v>9309</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="73" t="s">
+    <row r="17" spans="1:15">
+      <c r="A17" s="72" t="s">
         <v>279</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="72" t="s">
         <v>280</v>
       </c>
-      <c r="C17" s="119">
+      <c r="C17" s="114">
         <v>978</v>
       </c>
-      <c r="D17" s="119">
+      <c r="D17" s="114">
         <v>678</v>
       </c>
-      <c r="E17" s="119">
+      <c r="E17" s="114">
         <v>980</v>
       </c>
-      <c r="F17" s="119">
+      <c r="F17" s="114">
         <v>649</v>
       </c>
-      <c r="G17" s="119">
+      <c r="G17" s="114">
         <v>596</v>
       </c>
-      <c r="H17" s="119">
+      <c r="H17" s="114">
         <v>971</v>
       </c>
-      <c r="I17" s="119">
+      <c r="I17" s="114">
         <v>558</v>
       </c>
-      <c r="J17" s="119">
+      <c r="J17" s="114">
         <v>634</v>
       </c>
-      <c r="K17" s="119">
+      <c r="K17" s="114">
         <v>702</v>
       </c>
-      <c r="L17" s="119">
+      <c r="L17" s="114">
         <v>839</v>
       </c>
-      <c r="M17" s="119">
+      <c r="M17" s="114">
         <v>577</v>
       </c>
-      <c r="N17" s="119">
+      <c r="N17" s="114">
         <v>538</v>
       </c>
-      <c r="O17" s="120">
+      <c r="O17" s="115">
         <f t="shared" si="0"/>
         <v>8700</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="73" t="s">
+    <row r="18" spans="1:15">
+      <c r="A18" s="72" t="s">
         <v>281</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="72" t="s">
         <v>282</v>
       </c>
-      <c r="C18" s="119">
+      <c r="C18" s="114">
         <v>693</v>
       </c>
-      <c r="D18" s="119">
+      <c r="D18" s="114">
         <v>748</v>
       </c>
-      <c r="E18" s="119">
+      <c r="E18" s="114">
         <v>720</v>
       </c>
-      <c r="F18" s="119">
+      <c r="F18" s="114">
         <v>554</v>
       </c>
-      <c r="G18" s="119">
+      <c r="G18" s="114">
         <v>680</v>
       </c>
-      <c r="H18" s="119">
+      <c r="H18" s="114">
         <v>669</v>
       </c>
-      <c r="I18" s="119">
+      <c r="I18" s="114">
         <v>584</v>
       </c>
-      <c r="J18" s="119">
+      <c r="J18" s="114">
         <v>684</v>
       </c>
-      <c r="K18" s="119">
+      <c r="K18" s="114">
         <v>929</v>
       </c>
-      <c r="L18" s="119">
+      <c r="L18" s="114">
         <v>779</v>
       </c>
-      <c r="M18" s="119">
+      <c r="M18" s="114">
         <v>954</v>
       </c>
-      <c r="N18" s="119">
+      <c r="N18" s="114">
         <v>788</v>
       </c>
-      <c r="O18" s="120">
+      <c r="O18" s="115">
         <f t="shared" si="0"/>
         <v>8782</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="73" t="s">
+    <row r="19" spans="1:15">
+      <c r="A19" s="72" t="s">
         <v>283</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="72" t="s">
         <v>284</v>
       </c>
-      <c r="C19" s="119">
+      <c r="C19" s="114">
         <v>744</v>
       </c>
-      <c r="D19" s="119">
+      <c r="D19" s="114">
         <v>1173</v>
       </c>
-      <c r="E19" s="119">
+      <c r="E19" s="114">
         <v>1719</v>
       </c>
-      <c r="F19" s="119">
+      <c r="F19" s="114">
         <v>1337</v>
       </c>
-      <c r="G19" s="119">
+      <c r="G19" s="114">
         <v>1155</v>
       </c>
-      <c r="H19" s="119">
+      <c r="H19" s="114">
         <v>1624</v>
       </c>
-      <c r="I19" s="119">
+      <c r="I19" s="114">
         <v>934</v>
       </c>
-      <c r="J19" s="119">
+      <c r="J19" s="114">
         <v>1414</v>
       </c>
-      <c r="K19" s="119">
+      <c r="K19" s="114">
         <v>1359</v>
       </c>
-      <c r="L19" s="119">
+      <c r="L19" s="114">
         <v>1631</v>
       </c>
-      <c r="M19" s="119">
+      <c r="M19" s="114">
         <v>1979</v>
       </c>
-      <c r="N19" s="119">
+      <c r="N19" s="114">
         <v>1835</v>
       </c>
-      <c r="O19" s="120">
+      <c r="O19" s="115">
         <f t="shared" si="0"/>
         <v>16904</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="73" t="s">
+    <row r="20" spans="1:15">
+      <c r="A20" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="72" t="s">
         <v>286</v>
       </c>
-      <c r="C20" s="119">
+      <c r="C20" s="114">
         <v>927</v>
       </c>
-      <c r="D20" s="119">
+      <c r="D20" s="114">
         <v>898</v>
       </c>
-      <c r="E20" s="119">
+      <c r="E20" s="114">
         <v>977</v>
       </c>
-      <c r="F20" s="119">
+      <c r="F20" s="114">
         <v>723</v>
       </c>
-      <c r="G20" s="119">
+      <c r="G20" s="114">
         <v>908</v>
       </c>
-      <c r="H20" s="119">
+      <c r="H20" s="114">
         <v>1188</v>
       </c>
-      <c r="I20" s="119">
+      <c r="I20" s="114">
         <v>1161</v>
       </c>
-      <c r="J20" s="119">
+      <c r="J20" s="114">
         <v>960</v>
       </c>
-      <c r="K20" s="119">
+      <c r="K20" s="114">
         <v>734</v>
       </c>
-      <c r="L20" s="119">
+      <c r="L20" s="114">
         <v>1251</v>
       </c>
-      <c r="M20" s="119">
+      <c r="M20" s="114">
         <v>1105</v>
       </c>
-      <c r="N20" s="119">
+      <c r="N20" s="114">
         <v>1030</v>
       </c>
-      <c r="O20" s="120">
+      <c r="O20" s="115">
         <f t="shared" si="0"/>
         <v>11862</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="73" t="s">
+    <row r="21" spans="1:15">
+      <c r="A21" s="72" t="s">
         <v>287</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="C21" s="119">
+      <c r="C21" s="114">
         <v>544</v>
       </c>
-      <c r="D21" s="119">
+      <c r="D21" s="114">
         <v>976</v>
       </c>
-      <c r="E21" s="119">
+      <c r="E21" s="114">
         <v>742</v>
       </c>
-      <c r="F21" s="119">
+      <c r="F21" s="114">
         <v>755</v>
       </c>
-      <c r="G21" s="119">
+      <c r="G21" s="114">
         <v>801</v>
       </c>
-      <c r="H21" s="119">
+      <c r="H21" s="114">
         <v>979</v>
       </c>
-      <c r="I21" s="119">
+      <c r="I21" s="114">
         <v>656</v>
       </c>
-      <c r="J21" s="119">
+      <c r="J21" s="114">
         <v>811</v>
       </c>
-      <c r="K21" s="119">
+      <c r="K21" s="114">
         <v>879</v>
       </c>
-      <c r="L21" s="119">
+      <c r="L21" s="114">
         <v>746</v>
       </c>
-      <c r="M21" s="119">
+      <c r="M21" s="114">
         <v>529</v>
       </c>
-      <c r="N21" s="119">
+      <c r="N21" s="114">
         <v>550</v>
       </c>
-      <c r="O21" s="120">
+      <c r="O21" s="115">
         <f t="shared" si="0"/>
         <v>8968</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="73" t="s">
+    <row r="22" spans="1:15">
+      <c r="A22" s="72" t="s">
         <v>289</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="72" t="s">
         <v>290</v>
       </c>
-      <c r="C22" s="119">
+      <c r="C22" s="114">
         <v>568</v>
       </c>
-      <c r="D22" s="119">
+      <c r="D22" s="114">
         <v>856</v>
       </c>
-      <c r="E22" s="119">
+      <c r="E22" s="114">
         <v>975</v>
       </c>
-      <c r="F22" s="119">
+      <c r="F22" s="114">
         <v>611</v>
       </c>
-      <c r="G22" s="119">
+      <c r="G22" s="114">
         <v>746</v>
       </c>
-      <c r="H22" s="119">
+      <c r="H22" s="114">
         <v>510</v>
       </c>
-      <c r="I22" s="119">
+      <c r="I22" s="114">
         <v>777</v>
       </c>
-      <c r="J22" s="119">
+      <c r="J22" s="114">
         <v>862</v>
       </c>
-      <c r="K22" s="119">
+      <c r="K22" s="114">
         <v>616</v>
       </c>
-      <c r="L22" s="119">
+      <c r="L22" s="114">
         <v>951</v>
       </c>
-      <c r="M22" s="119">
+      <c r="M22" s="114">
         <v>931</v>
       </c>
-      <c r="N22" s="119">
+      <c r="N22" s="114">
         <v>450</v>
       </c>
-      <c r="O22" s="120">
+      <c r="O22" s="115">
         <f t="shared" si="0"/>
         <v>8853</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="125" t="s">
+    <row r="23" spans="1:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B23" s="120" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="126">
+      <c r="C23" s="121">
         <f t="shared" ref="C23:O23" si="1">SUM(C6:C22)</f>
         <v>12333</v>
       </c>
-      <c r="D23" s="126">
+      <c r="D23" s="121">
         <f t="shared" si="1"/>
         <v>12733</v>
       </c>
-      <c r="E23" s="126">
+      <c r="E23" s="121">
         <f t="shared" si="1"/>
         <v>14789</v>
       </c>
-      <c r="F23" s="126">
+      <c r="F23" s="121">
         <f t="shared" si="1"/>
         <v>13761</v>
       </c>
-      <c r="G23" s="126">
+      <c r="G23" s="121">
         <f t="shared" si="1"/>
         <v>14098</v>
       </c>
-      <c r="H23" s="126">
+      <c r="H23" s="121">
         <f t="shared" si="1"/>
         <v>13758</v>
       </c>
-      <c r="I23" s="126">
+      <c r="I23" s="121">
         <f t="shared" si="1"/>
         <v>13812</v>
       </c>
-      <c r="J23" s="126">
+      <c r="J23" s="121">
         <f t="shared" si="1"/>
         <v>13203</v>
       </c>
-      <c r="K23" s="126">
+      <c r="K23" s="121">
         <f t="shared" si="1"/>
         <v>14521</v>
       </c>
-      <c r="L23" s="126">
+      <c r="L23" s="121">
         <f t="shared" si="1"/>
         <v>15070</v>
       </c>
-      <c r="M23" s="126">
+      <c r="M23" s="121">
         <f t="shared" si="1"/>
         <v>13848</v>
       </c>
-      <c r="N23" s="126">
+      <c r="N23" s="121">
         <f t="shared" si="1"/>
         <v>14408</v>
       </c>
-      <c r="O23" s="126">
+      <c r="O23" s="121">
         <f t="shared" si="1"/>
         <v>166334</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:15" ht="15" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
